--- a/JupyterNotebooks/AvgHW/Alpha4F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000405551999494</v>
+        <v>1.000397543746375</v>
       </c>
       <c r="D3">
-        <v>0.9984068710527176</v>
+        <v>0.9991263967641129</v>
       </c>
       <c r="E3">
-        <v>1.000394243874948</v>
+        <v>1.001049166218134</v>
       </c>
       <c r="F3">
         <v>1.000405551999494</v>
       </c>
       <c r="G3">
-        <v>1.001049166218134</v>
+        <v>0.9984068710527176</v>
       </c>
       <c r="H3">
-        <v>0.9991263967641129</v>
+        <v>1.000405551999494</v>
       </c>
       <c r="I3">
-        <v>1.000397543746375</v>
+        <v>0.9984068710527176</v>
       </c>
       <c r="J3">
-        <v>0.9984068710527176</v>
+        <v>1.000394243874948</v>
       </c>
       <c r="K3">
         <v>1.000405551999494</v>
@@ -728,7 +680,7 @@
         <v>0.9999632956092969</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000783250503247</v>
+        <v>1.00076747361736</v>
       </c>
       <c r="D4">
-        <v>0.9969242741400446</v>
+        <v>0.9983135061723573</v>
       </c>
       <c r="E4">
-        <v>1.000760976558196</v>
+        <v>1.002025032162525</v>
       </c>
       <c r="F4">
         <v>1.000783250503247</v>
       </c>
       <c r="G4">
-        <v>1.002025032162525</v>
+        <v>0.9969242741400446</v>
       </c>
       <c r="H4">
-        <v>0.9983135061723573</v>
+        <v>1.000783250503247</v>
       </c>
       <c r="I4">
-        <v>1.00076747361736</v>
+        <v>0.9969242741400446</v>
       </c>
       <c r="J4">
-        <v>0.9969242741400446</v>
+        <v>1.000760976558196</v>
       </c>
       <c r="K4">
         <v>1.000783250503247</v>
@@ -790,7 +742,7 @@
         <v>0.9999290855256215</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001498688591561</v>
+        <v>1.001470607583784</v>
       </c>
       <c r="D5">
-        <v>0.9941071738512174</v>
+        <v>0.9967681205587045</v>
       </c>
       <c r="E5">
-        <v>1.001459051028604</v>
+        <v>1.003883245469275</v>
       </c>
       <c r="F5">
         <v>1.001498688591561</v>
       </c>
       <c r="G5">
-        <v>1.003883245469275</v>
+        <v>0.9941071738512174</v>
       </c>
       <c r="H5">
-        <v>0.9967681205587045</v>
+        <v>1.001498688591561</v>
       </c>
       <c r="I5">
-        <v>1.001470607583784</v>
+        <v>0.9941071738512174</v>
       </c>
       <c r="J5">
-        <v>0.9941071738512174</v>
+        <v>1.001459051028604</v>
       </c>
       <c r="K5">
         <v>1.001498688591561</v>
@@ -852,7 +804,7 @@
         <v>0.9998644811805241</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002197034265832</v>
+        <v>1.002156838524864</v>
       </c>
       <c r="D6">
-        <v>0.9913577559332024</v>
+        <v>0.9952598973617184</v>
       </c>
       <c r="E6">
-        <v>1.002140302733312</v>
+        <v>1.005696669290647</v>
       </c>
       <c r="F6">
         <v>1.002197034265832</v>
       </c>
       <c r="G6">
-        <v>1.005696669290647</v>
+        <v>0.9913577559332024</v>
       </c>
       <c r="H6">
-        <v>0.9952598973617184</v>
+        <v>1.002197034265832</v>
       </c>
       <c r="I6">
-        <v>1.002156838524864</v>
+        <v>0.9913577559332024</v>
       </c>
       <c r="J6">
-        <v>0.9913577559332024</v>
+        <v>1.002140302733312</v>
       </c>
       <c r="K6">
         <v>1.002197034265832</v>
@@ -914,7 +866,7 @@
         <v>0.9998014163515957</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000028009088691</v>
+        <v>1.000028571824802</v>
       </c>
       <c r="D7">
-        <v>0.999885933873554</v>
+        <v>0.9999370819617461</v>
       </c>
       <c r="E7">
-        <v>1.000028799023039</v>
+        <v>1.000076949954471</v>
       </c>
       <c r="F7">
         <v>1.000028009088691</v>
       </c>
       <c r="G7">
-        <v>1.000076949954471</v>
+        <v>0.9998859338735541</v>
       </c>
       <c r="H7">
-        <v>0.9999370819617461</v>
+        <v>1.000028009088691</v>
       </c>
       <c r="I7">
-        <v>1.000028571824802</v>
+        <v>0.9998859338735541</v>
       </c>
       <c r="J7">
-        <v>0.999885933873554</v>
+        <v>1.000028799023039</v>
       </c>
       <c r="K7">
         <v>1.000028009088691</v>
@@ -976,7 +928,7 @@
         <v>0.9999975576210504</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000074625205892</v>
+        <v>1.000075730352817</v>
       </c>
       <c r="D8">
-        <v>0.9996975005709962</v>
+        <v>0.99983326653996</v>
       </c>
       <c r="E8">
-        <v>1.000076180826492</v>
+        <v>1.000203447353135</v>
       </c>
       <c r="F8">
         <v>1.000074625205892</v>
       </c>
       <c r="G8">
-        <v>1.000203447353135</v>
+        <v>0.9996975005709962</v>
       </c>
       <c r="H8">
-        <v>0.99983326653996</v>
+        <v>1.000074625205892</v>
       </c>
       <c r="I8">
-        <v>1.000075730352817</v>
+        <v>0.9996975005709962</v>
       </c>
       <c r="J8">
-        <v>0.9996975005709962</v>
+        <v>1.000076180826492</v>
       </c>
       <c r="K8">
         <v>1.000074625205892</v>
@@ -1038,7 +990,7 @@
         <v>0.9999934584748821</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000103601461373</v>
+        <v>1.000104417470247</v>
       </c>
       <c r="D9">
-        <v>0.9995826432287085</v>
+        <v>0.9997701895188037</v>
       </c>
       <c r="E9">
-        <v>1.000104749369936</v>
+        <v>1.000279553591282</v>
       </c>
       <c r="F9">
         <v>1.000103601461373</v>
       </c>
       <c r="G9">
-        <v>1.000279553591282</v>
+        <v>0.9995826432287085</v>
       </c>
       <c r="H9">
-        <v>0.9997701895188037</v>
+        <v>1.000103601461373</v>
       </c>
       <c r="I9">
-        <v>1.000104417470246</v>
+        <v>0.9995826432287085</v>
       </c>
       <c r="J9">
-        <v>0.9995826432287085</v>
+        <v>1.000104749369936</v>
       </c>
       <c r="K9">
         <v>1.000103601461373</v>
@@ -1097,10 +1049,10 @@
         <v>0.9999736488803477</v>
       </c>
       <c r="T9">
-        <v>0.9999908591067249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999908591067251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000223599071854</v>
+        <v>1.000226264262134</v>
       </c>
       <c r="D10">
-        <v>0.9990959398561697</v>
+        <v>0.9995018985066856</v>
       </c>
       <c r="E10">
-        <v>1.000227357725663</v>
+        <v>1.000607004084803</v>
       </c>
       <c r="F10">
         <v>1.000223599071854</v>
       </c>
       <c r="G10">
-        <v>1.000607004084803</v>
+        <v>0.9990959398561697</v>
       </c>
       <c r="H10">
-        <v>0.9995018985066856</v>
+        <v>1.000223599071854</v>
       </c>
       <c r="I10">
-        <v>1.000226264262134</v>
+        <v>0.9990959398561697</v>
       </c>
       <c r="J10">
-        <v>0.9990959398561697</v>
+        <v>1.000227357725663</v>
       </c>
       <c r="K10">
         <v>1.000223599071854</v>
@@ -1150,19 +1102,19 @@
         <v>0.9998489655512289</v>
       </c>
       <c r="Q10">
-        <v>0.9998489655512289</v>
+        <v>0.9998489655512288</v>
       </c>
       <c r="R10">
-        <v>0.9999426239313853</v>
+        <v>0.9999426239313851</v>
       </c>
       <c r="S10">
-        <v>0.9999426239313853</v>
+        <v>0.9999426239313851</v>
       </c>
       <c r="T10">
         <v>0.9999803439178848</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000371949567721</v>
+        <v>1.000374365533813</v>
       </c>
       <c r="D11">
-        <v>0.998503444416267</v>
+        <v>0.9991761084579239</v>
       </c>
       <c r="E11">
-        <v>1.000375358028095</v>
+        <v>1.001001602276631</v>
       </c>
       <c r="F11">
         <v>1.000371949567721</v>
       </c>
       <c r="G11">
-        <v>1.001001602276631</v>
+        <v>0.998503444416267</v>
       </c>
       <c r="H11">
-        <v>0.9991761084579239</v>
+        <v>1.000371949567721</v>
       </c>
       <c r="I11">
-        <v>1.000374365533813</v>
+        <v>0.998503444416267</v>
       </c>
       <c r="J11">
-        <v>0.998503444416267</v>
+        <v>1.000375358028095</v>
       </c>
       <c r="K11">
         <v>1.000371949567721</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999671380467419</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9959917097856436</v>
+        <v>0.9959043335620371</v>
       </c>
       <c r="D12">
-        <v>1.016350308495692</v>
+        <v>1.009021211516634</v>
       </c>
       <c r="E12">
-        <v>0.995868369777545</v>
+        <v>0.9889588270509722</v>
       </c>
       <c r="F12">
         <v>0.9959917097856436</v>
       </c>
       <c r="G12">
-        <v>0.9889588270509722</v>
+        <v>1.016350308495692</v>
       </c>
       <c r="H12">
-        <v>1.009021211516634</v>
+        <v>0.9959917097856436</v>
       </c>
       <c r="I12">
-        <v>0.9959043335620373</v>
+        <v>1.016350308495692</v>
       </c>
       <c r="J12">
-        <v>1.016350308495692</v>
+        <v>0.995868369777545</v>
       </c>
       <c r="K12">
         <v>0.9959917097856436</v>
@@ -1286,7 +1238,7 @@
         <v>1.000349126698087</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9988982328641662</v>
+        <v>0.9989361027224172</v>
       </c>
       <c r="D13">
-        <v>1.004269613434494</v>
+        <v>1.002335922004729</v>
       </c>
       <c r="E13">
-        <v>0.9989516865231635</v>
+        <v>0.9972146777811256</v>
       </c>
       <c r="F13">
         <v>0.9988982328641662</v>
       </c>
       <c r="G13">
-        <v>0.9972146777811256</v>
+        <v>1.004269613434494</v>
       </c>
       <c r="H13">
-        <v>1.002335922004729</v>
+        <v>0.9988982328641662</v>
       </c>
       <c r="I13">
-        <v>0.9989361027224172</v>
+        <v>1.004269613434494</v>
       </c>
       <c r="J13">
-        <v>1.004269613434494</v>
+        <v>0.9989516865231632</v>
       </c>
       <c r="K13">
         <v>0.9988982328641662</v>
       </c>
       <c r="L13">
-        <v>0.9989516865231635</v>
+        <v>0.9989516865231632</v>
       </c>
       <c r="M13">
         <v>1.001610649978829</v>
@@ -1348,7 +1300,7 @@
         <v>1.000101039221683</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9900228960430021</v>
+        <v>0.9900340611122644</v>
       </c>
       <c r="D14">
-        <v>1.039867892566058</v>
+        <v>1.021923694672814</v>
       </c>
       <c r="E14">
-        <v>0.9900386538886654</v>
+        <v>0.9734394138906071</v>
       </c>
       <c r="F14">
         <v>0.9900228960430021</v>
       </c>
       <c r="G14">
-        <v>0.9734394138906073</v>
+        <v>1.039867892566058</v>
       </c>
       <c r="H14">
-        <v>1.021923694672814</v>
+        <v>0.9900228960430021</v>
       </c>
       <c r="I14">
-        <v>0.9900340611122644</v>
+        <v>1.039867892566058</v>
       </c>
       <c r="J14">
-        <v>1.039867892566058</v>
+        <v>0.9900386538886654</v>
       </c>
       <c r="K14">
         <v>0.9900228960430021</v>
@@ -1410,7 +1362,7 @@
         <v>1.000887768695568</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9973603906853733</v>
+        <v>0.9973586951029331</v>
       </c>
       <c r="D15">
-        <v>1.010564612316284</v>
+        <v>1.005811087511842</v>
       </c>
       <c r="E15">
-        <v>0.9973579900166274</v>
+        <v>0.992954184241805</v>
       </c>
       <c r="F15">
         <v>0.9973603906853733</v>
       </c>
       <c r="G15">
-        <v>0.992954184241805</v>
+        <v>1.010564612316284</v>
       </c>
       <c r="H15">
-        <v>1.005811087511842</v>
+        <v>0.9973603906853733</v>
       </c>
       <c r="I15">
-        <v>0.9973586951029331</v>
+        <v>1.010564612316284</v>
       </c>
       <c r="J15">
-        <v>1.010564612316284</v>
+        <v>0.9973579900166274</v>
       </c>
       <c r="K15">
         <v>0.9973603906853733</v>
@@ -1472,7 +1424,7 @@
         <v>1.000234493312478</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999986275797799</v>
+        <v>1.007752797616333</v>
       </c>
       <c r="D16">
-        <v>0.9999952974892248</v>
+        <v>0.9829604813503729</v>
       </c>
       <c r="E16">
-        <v>1.000002591543055</v>
+        <v>1.020489202265319</v>
       </c>
       <c r="F16">
-        <v>0.9999986275797799</v>
+        <v>1.007888161843829</v>
       </c>
       <c r="G16">
-        <v>1.000007668156978</v>
+        <v>0.9689386678294309</v>
       </c>
       <c r="H16">
-        <v>0.9999964975108259</v>
+        <v>1.007888161843829</v>
       </c>
       <c r="I16">
-        <v>1.00000143923559</v>
+        <v>0.9689386678294309</v>
       </c>
       <c r="J16">
-        <v>0.9999952974892248</v>
+        <v>1.007697098784133</v>
       </c>
       <c r="K16">
-        <v>0.9999986275797799</v>
+        <v>1.007888161843829</v>
       </c>
       <c r="L16">
-        <v>1.000002591543055</v>
+        <v>1.007697098784133</v>
       </c>
       <c r="M16">
-        <v>0.9999989445161399</v>
+        <v>0.9883178833067821</v>
       </c>
       <c r="N16">
-        <v>0.9999989445161399</v>
+        <v>0.9883178833067821</v>
       </c>
       <c r="O16">
-        <v>0.9999981288477019</v>
+        <v>0.9865320826546456</v>
       </c>
       <c r="P16">
-        <v>0.9999988388706865</v>
+        <v>0.9948413094857979</v>
       </c>
       <c r="Q16">
-        <v>0.9999988388706865</v>
+        <v>0.9948413094857979</v>
       </c>
       <c r="R16">
-        <v>0.9999987860479599</v>
+        <v>0.9981030225753057</v>
       </c>
       <c r="S16">
-        <v>0.9999987860479599</v>
+        <v>0.9981030225753057</v>
       </c>
       <c r="T16">
-        <v>1.000000353585909</v>
+        <v>0.9992877349482364</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000037950626707</v>
+        <v>1.006341894458818</v>
       </c>
       <c r="D17">
-        <v>0.9998591502879216</v>
+        <v>0.9860563541011321</v>
       </c>
       <c r="E17">
-        <v>1.000033691753844</v>
+        <v>1.01681699295929</v>
       </c>
       <c r="F17">
-        <v>1.000037950626707</v>
+        <v>1.006411233801082</v>
       </c>
       <c r="G17">
-        <v>1.000089036123364</v>
+        <v>0.9746067379867284</v>
       </c>
       <c r="H17">
-        <v>0.9999235191595528</v>
+        <v>1.006411233801082</v>
       </c>
       <c r="I17">
-        <v>1.000034936600669</v>
+        <v>0.9746067379867284</v>
       </c>
       <c r="J17">
-        <v>0.9998591502879216</v>
+        <v>1.00631336353871</v>
       </c>
       <c r="K17">
-        <v>1.000037950626707</v>
+        <v>1.006411233801082</v>
       </c>
       <c r="L17">
-        <v>1.000033691753844</v>
+        <v>1.00631336353871</v>
       </c>
       <c r="M17">
-        <v>0.9999464210208828</v>
+        <v>0.9904600507627193</v>
       </c>
       <c r="N17">
-        <v>0.9999464210208828</v>
+        <v>0.9904600507627193</v>
       </c>
       <c r="O17">
-        <v>0.9999387870671063</v>
+        <v>0.9889921518755235</v>
       </c>
       <c r="P17">
-        <v>0.9999769308894909</v>
+        <v>0.9957771117755069</v>
       </c>
       <c r="Q17">
-        <v>0.9999769308894909</v>
+        <v>0.995777111775507</v>
       </c>
       <c r="R17">
-        <v>0.9999921858237949</v>
+        <v>0.9984356422819007</v>
       </c>
       <c r="S17">
-        <v>0.9999921858237949</v>
+        <v>0.9984356422819007</v>
       </c>
       <c r="T17">
-        <v>0.9999963807586764</v>
+        <v>0.9994244294742934</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000117267279963</v>
+        <v>1.003506503778026</v>
       </c>
       <c r="D18">
-        <v>0.9995141667865917</v>
+        <v>0.9922782034263015</v>
       </c>
       <c r="E18">
-        <v>1.000123785289666</v>
+        <v>1.00943392249955</v>
       </c>
       <c r="F18">
-        <v>1.000117267279963</v>
+        <v>1.003445566125022</v>
       </c>
       <c r="G18">
-        <v>1.000331343758211</v>
+        <v>0.9859965614209223</v>
       </c>
       <c r="H18">
-        <v>0.9997312807263303</v>
+        <v>1.003445566125022</v>
       </c>
       <c r="I18">
-        <v>1.000121891951705</v>
+        <v>0.9859965614209223</v>
       </c>
       <c r="J18">
-        <v>0.9995141667865917</v>
+        <v>1.003531578821505</v>
       </c>
       <c r="K18">
-        <v>1.000117267279963</v>
+        <v>1.003445566125022</v>
       </c>
       <c r="L18">
-        <v>1.000123785289666</v>
+        <v>1.003531578821505</v>
       </c>
       <c r="M18">
-        <v>0.999818976038129</v>
+        <v>0.9947640701212138</v>
       </c>
       <c r="N18">
-        <v>0.999818976038129</v>
+        <v>0.9947640701212138</v>
       </c>
       <c r="O18">
-        <v>0.9997897442675295</v>
+        <v>0.9939354478895764</v>
       </c>
       <c r="P18">
-        <v>0.9999184064520735</v>
+        <v>0.9976579021224831</v>
       </c>
       <c r="Q18">
-        <v>0.9999184064520735</v>
+        <v>0.9976579021224831</v>
       </c>
       <c r="R18">
-        <v>0.9999681216590458</v>
+        <v>0.9991048181231177</v>
       </c>
       <c r="S18">
-        <v>0.9999681216590458</v>
+        <v>0.9991048181231177</v>
       </c>
       <c r="T18">
-        <v>0.9999899559654111</v>
+        <v>0.9996987226785544</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.003857163299408</v>
+      </c>
+      <c r="D19">
+        <v>0.9915034640857814</v>
+      </c>
+      <c r="E19">
+        <v>1.010405547604444</v>
+      </c>
+      <c r="F19">
+        <v>1.003769488615508</v>
+      </c>
+      <c r="G19">
+        <v>0.9846038206302884</v>
+      </c>
+      <c r="H19">
+        <v>1.003769488615508</v>
+      </c>
+      <c r="I19">
+        <v>0.9846038206302884</v>
+      </c>
+      <c r="J19">
+        <v>1.003893238170542</v>
+      </c>
+      <c r="K19">
+        <v>1.003769488615508</v>
+      </c>
+      <c r="L19">
+        <v>1.003893238170542</v>
+      </c>
+      <c r="M19">
+        <v>0.9942485294004153</v>
+      </c>
+      <c r="N19">
+        <v>0.9942485294004153</v>
+      </c>
+      <c r="O19">
+        <v>0.9933335076288706</v>
+      </c>
+      <c r="P19">
+        <v>0.9974221824721128</v>
+      </c>
+      <c r="Q19">
+        <v>0.9974221824721129</v>
+      </c>
+      <c r="R19">
+        <v>0.9990090090079616</v>
+      </c>
+      <c r="S19">
+        <v>0.9990090090079616</v>
+      </c>
+      <c r="T19">
+        <v>0.9996721204009953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.00000143923559</v>
+      </c>
+      <c r="D20">
+        <v>0.9999964975108259</v>
+      </c>
+      <c r="E20">
+        <v>1.000007668156978</v>
+      </c>
+      <c r="F20">
+        <v>0.9999986275797799</v>
+      </c>
+      <c r="G20">
+        <v>0.9999952974892248</v>
+      </c>
+      <c r="H20">
+        <v>0.9999986275797799</v>
+      </c>
+      <c r="I20">
+        <v>0.9999952974892248</v>
+      </c>
+      <c r="J20">
+        <v>1.000002591543055</v>
+      </c>
+      <c r="K20">
+        <v>0.9999986275797799</v>
+      </c>
+      <c r="L20">
+        <v>1.000002591543055</v>
+      </c>
+      <c r="M20">
+        <v>0.9999989445161399</v>
+      </c>
+      <c r="N20">
+        <v>0.9999989445161399</v>
+      </c>
+      <c r="O20">
+        <v>0.9999981288477019</v>
+      </c>
+      <c r="P20">
+        <v>0.9999988388706865</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999988388706865</v>
+      </c>
+      <c r="R20">
+        <v>0.9999987860479599</v>
+      </c>
+      <c r="S20">
+        <v>0.9999987860479599</v>
+      </c>
+      <c r="T20">
+        <v>1.000000353585909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000034936600669</v>
+      </c>
+      <c r="D21">
+        <v>0.9999235191595526</v>
+      </c>
+      <c r="E21">
+        <v>1.000089036123364</v>
+      </c>
+      <c r="F21">
+        <v>1.000037950626707</v>
+      </c>
+      <c r="G21">
+        <v>0.9998591502879215</v>
+      </c>
+      <c r="H21">
+        <v>1.000037950626707</v>
+      </c>
+      <c r="I21">
+        <v>0.9998591502879215</v>
+      </c>
+      <c r="J21">
+        <v>1.000033691753845</v>
+      </c>
+      <c r="K21">
+        <v>1.000037950626707</v>
+      </c>
+      <c r="L21">
+        <v>1.000033691753845</v>
+      </c>
+      <c r="M21">
+        <v>0.9999464210208832</v>
+      </c>
+      <c r="N21">
+        <v>0.9999464210208832</v>
+      </c>
+      <c r="O21">
+        <v>0.9999387870671063</v>
+      </c>
+      <c r="P21">
+        <v>0.999976930889491</v>
+      </c>
+      <c r="Q21">
+        <v>0.999976930889491</v>
+      </c>
+      <c r="R21">
+        <v>0.999992185823795</v>
+      </c>
+      <c r="S21">
+        <v>0.999992185823795</v>
+      </c>
+      <c r="T21">
+        <v>0.9999963807586764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000121891951705</v>
+      </c>
+      <c r="D22">
+        <v>0.9997312807263303</v>
+      </c>
+      <c r="E22">
+        <v>1.000331343758211</v>
+      </c>
+      <c r="F22">
+        <v>1.000117267279963</v>
+      </c>
+      <c r="G22">
+        <v>0.9995141667865917</v>
+      </c>
+      <c r="H22">
+        <v>1.000117267279963</v>
+      </c>
+      <c r="I22">
+        <v>0.9995141667865917</v>
+      </c>
+      <c r="J22">
+        <v>1.000123785289666</v>
+      </c>
+      <c r="K22">
+        <v>1.000117267279963</v>
+      </c>
+      <c r="L22">
+        <v>1.000123785289666</v>
+      </c>
+      <c r="M22">
+        <v>0.999818976038129</v>
+      </c>
+      <c r="N22">
+        <v>0.999818976038129</v>
+      </c>
+      <c r="O22">
+        <v>0.9997897442675295</v>
+      </c>
+      <c r="P22">
+        <v>0.9999184064520735</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999184064520735</v>
+      </c>
+      <c r="R22">
+        <v>0.9999681216590458</v>
+      </c>
+      <c r="S22">
+        <v>0.9999681216590458</v>
+      </c>
+      <c r="T22">
+        <v>0.9999899559654111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000284961310603</v>
+      </c>
+      <c r="D23">
+        <v>0.9993707701069157</v>
+      </c>
+      <c r="E23">
+        <v>1.000785756921173</v>
+      </c>
+      <c r="F23">
         <v>1.000266019074493</v>
       </c>
-      <c r="D19">
+      <c r="G23">
         <v>0.9988671932076201</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.000266019074493</v>
+      </c>
+      <c r="I23">
+        <v>0.9988671932076201</v>
+      </c>
+      <c r="J23">
         <v>1.000292749067281</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>1.000266019074493</v>
       </c>
-      <c r="G19">
-        <v>1.000785756921173</v>
-      </c>
-      <c r="H19">
-        <v>0.9993707701069157</v>
-      </c>
-      <c r="I19">
-        <v>1.000284961310603</v>
-      </c>
-      <c r="J19">
-        <v>0.9988671932076201</v>
-      </c>
-      <c r="K19">
-        <v>1.000266019074493</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000292749067281</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9995799711374505</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9995799711374505</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9995102374606054</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9998086537831311</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9998086537831311</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999229951059715</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999229951059715</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999779082813475</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000397543746375</v>
+        <v>1.004240478069163</v>
       </c>
       <c r="D3">
-        <v>0.9991263967641129</v>
+        <v>0.9906626675936638</v>
       </c>
       <c r="E3">
-        <v>1.001049166218134</v>
+        <v>1.011399966498563</v>
       </c>
       <c r="F3">
-        <v>1.000405551999494</v>
+        <v>1.004173121023058</v>
       </c>
       <c r="G3">
-        <v>0.9984068710527176</v>
+        <v>0.9830630353890515</v>
       </c>
       <c r="H3">
-        <v>1.000405551999494</v>
+        <v>1.004173121023058</v>
       </c>
       <c r="I3">
-        <v>0.9984068710527176</v>
+        <v>0.9830630353890515</v>
       </c>
       <c r="J3">
-        <v>1.000394243874948</v>
+        <v>1.004268197867439</v>
       </c>
       <c r="K3">
-        <v>1.000405551999494</v>
+        <v>1.004173121023058</v>
       </c>
       <c r="L3">
-        <v>1.000394243874948</v>
+        <v>1.004268197867439</v>
       </c>
       <c r="M3">
-        <v>0.9994005574638326</v>
+        <v>0.9936656166282452</v>
       </c>
       <c r="N3">
-        <v>0.9994005574638326</v>
+        <v>0.9936656166282452</v>
       </c>
       <c r="O3">
-        <v>0.999309170563926</v>
+        <v>0.9926646336167181</v>
       </c>
       <c r="P3">
-        <v>0.9997355556423866</v>
+        <v>0.997168118093183</v>
       </c>
       <c r="Q3">
-        <v>0.9997355556423866</v>
+        <v>0.997168118093183</v>
       </c>
       <c r="R3">
-        <v>0.9999030547316635</v>
+        <v>0.9989193688256517</v>
       </c>
       <c r="S3">
-        <v>0.9999030547316635</v>
+        <v>0.9989193688256517</v>
       </c>
       <c r="T3">
-        <v>0.9999632956092969</v>
+        <v>0.9996345777401565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00076747361736</v>
+        <v>1.00384318117592</v>
       </c>
       <c r="D4">
-        <v>0.9983135061723573</v>
+        <v>0.99153699799385</v>
       </c>
       <c r="E4">
-        <v>1.002025032162525</v>
+        <v>1.010337443164366</v>
       </c>
       <c r="F4">
-        <v>1.000783250503247</v>
+        <v>1.003778065808796</v>
       </c>
       <c r="G4">
-        <v>0.9969242741400446</v>
+        <v>0.9846513950810699</v>
       </c>
       <c r="H4">
-        <v>1.000783250503247</v>
+        <v>1.003778065808796</v>
       </c>
       <c r="I4">
-        <v>0.9969242741400446</v>
+        <v>0.9846513950810699</v>
       </c>
       <c r="J4">
-        <v>1.000760976558196</v>
+        <v>1.00386997694372</v>
       </c>
       <c r="K4">
-        <v>1.000783250503247</v>
+        <v>1.003778065808796</v>
       </c>
       <c r="L4">
-        <v>1.000760976558196</v>
+        <v>1.00386997694372</v>
       </c>
       <c r="M4">
-        <v>0.9988426253491201</v>
+        <v>0.9942606860123953</v>
       </c>
       <c r="N4">
-        <v>0.9988426253491201</v>
+        <v>0.9942606860123953</v>
       </c>
       <c r="O4">
-        <v>0.9986662522901991</v>
+        <v>0.9933527900062135</v>
       </c>
       <c r="P4">
-        <v>0.9994895004004957</v>
+        <v>0.9974331459445288</v>
       </c>
       <c r="Q4">
-        <v>0.9994895004004957</v>
+        <v>0.9974331459445288</v>
       </c>
       <c r="R4">
-        <v>0.9998129379261834</v>
+        <v>0.9990193759105955</v>
       </c>
       <c r="S4">
-        <v>0.9998129379261834</v>
+        <v>0.9990193759105955</v>
       </c>
       <c r="T4">
-        <v>0.9999290855256215</v>
+        <v>0.9996695100279539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001470607583784</v>
+        <v>1.004993109649595</v>
       </c>
       <c r="D5">
-        <v>0.9967681205587045</v>
+        <v>0.9890063247978442</v>
       </c>
       <c r="E5">
-        <v>1.003883245469275</v>
+        <v>1.013413068247978</v>
       </c>
       <c r="F5">
-        <v>1.001498688591561</v>
+        <v>1.004921303396227</v>
       </c>
       <c r="G5">
-        <v>0.9941071738512174</v>
+        <v>0.9800541512668458</v>
       </c>
       <c r="H5">
-        <v>1.001498688591561</v>
+        <v>1.004921303396227</v>
       </c>
       <c r="I5">
-        <v>0.9941071738512174</v>
+        <v>0.9800541512668458</v>
       </c>
       <c r="J5">
-        <v>1.001459051028604</v>
+        <v>1.005022664258759</v>
       </c>
       <c r="K5">
-        <v>1.001498688591561</v>
+        <v>1.004921303396227</v>
       </c>
       <c r="L5">
-        <v>1.001459051028604</v>
+        <v>1.005022664258759</v>
       </c>
       <c r="M5">
-        <v>0.9977831124399106</v>
+        <v>0.9925384077628026</v>
       </c>
       <c r="N5">
-        <v>0.9977831124399106</v>
+        <v>0.9925384077628026</v>
       </c>
       <c r="O5">
-        <v>0.9974447818128418</v>
+        <v>0.991361046774483</v>
       </c>
       <c r="P5">
-        <v>0.9990216378237941</v>
+        <v>0.9966660396406105</v>
       </c>
       <c r="Q5">
-        <v>0.9990216378237941</v>
+        <v>0.9966660396406106</v>
       </c>
       <c r="R5">
-        <v>0.9996409005157358</v>
+        <v>0.9987298555795145</v>
       </c>
       <c r="S5">
-        <v>0.9996409005157358</v>
+        <v>0.9987298555795145</v>
       </c>
       <c r="T5">
-        <v>0.9998644811805241</v>
+        <v>0.9995684369362081</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002156838524864</v>
+        <v>1.005693607613637</v>
       </c>
       <c r="D6">
-        <v>0.9952598973617184</v>
+        <v>0.9874646886931829</v>
       </c>
       <c r="E6">
-        <v>1.005696669290647</v>
+        <v>1.015287048295455</v>
       </c>
       <c r="F6">
-        <v>1.002197034265832</v>
+        <v>1.005617423068182</v>
       </c>
       <c r="G6">
-        <v>0.9913577559332024</v>
+        <v>0.977253776875</v>
       </c>
       <c r="H6">
-        <v>1.002197034265832</v>
+        <v>1.005617423068182</v>
       </c>
       <c r="I6">
-        <v>0.9913577559332024</v>
+        <v>0.977253776875</v>
       </c>
       <c r="J6">
-        <v>1.002140302733312</v>
+        <v>1.005724967272729</v>
       </c>
       <c r="K6">
-        <v>1.002197034265832</v>
+        <v>1.005617423068182</v>
       </c>
       <c r="L6">
-        <v>1.002140302733312</v>
+        <v>1.005724967272729</v>
       </c>
       <c r="M6">
-        <v>0.996749029333257</v>
+        <v>0.9914893720738645</v>
       </c>
       <c r="N6">
-        <v>0.996749029333257</v>
+        <v>0.9914893720738645</v>
       </c>
       <c r="O6">
-        <v>0.9962526520094107</v>
+        <v>0.9901478109469707</v>
       </c>
       <c r="P6">
-        <v>0.9985650309774486</v>
+        <v>0.9961987224053036</v>
       </c>
       <c r="Q6">
-        <v>0.9985650309774486</v>
+        <v>0.9961987224053036</v>
       </c>
       <c r="R6">
-        <v>0.9994730317995444</v>
+        <v>0.9985533975710232</v>
       </c>
       <c r="S6">
-        <v>0.9994730317995444</v>
+        <v>0.9985533975710232</v>
       </c>
       <c r="T6">
-        <v>0.9998014163515957</v>
+        <v>0.9995069186363642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000028571824802</v>
+        <v>1.009713989050998</v>
       </c>
       <c r="D7">
-        <v>0.9999370819617461</v>
+        <v>0.9786655116051429</v>
       </c>
       <c r="E7">
-        <v>1.000076949954471</v>
+        <v>1.025500863275286</v>
       </c>
       <c r="F7">
-        <v>1.000028009088691</v>
+        <v>1.010009012024488</v>
       </c>
       <c r="G7">
-        <v>0.9998859338735541</v>
+        <v>0.9610347865065987</v>
       </c>
       <c r="H7">
-        <v>1.000028009088691</v>
+        <v>1.010009012024488</v>
       </c>
       <c r="I7">
-        <v>0.9998859338735541</v>
+        <v>0.9610347865065987</v>
       </c>
       <c r="J7">
-        <v>1.000028799023039</v>
+        <v>1.00959257092653</v>
       </c>
       <c r="K7">
-        <v>1.000028009088691</v>
+        <v>1.010009012024488</v>
       </c>
       <c r="L7">
-        <v>1.000028799023039</v>
+        <v>1.00959257092653</v>
       </c>
       <c r="M7">
-        <v>0.9999573664482964</v>
+        <v>0.9853136787165643</v>
       </c>
       <c r="N7">
-        <v>0.9999573664482964</v>
+        <v>0.9853136787165643</v>
       </c>
       <c r="O7">
-        <v>0.9999506049527795</v>
+        <v>0.9830976230127572</v>
       </c>
       <c r="P7">
-        <v>0.9999809139950945</v>
+        <v>0.993545456485872</v>
       </c>
       <c r="Q7">
-        <v>0.9999809139950945</v>
+        <v>0.993545456485872</v>
       </c>
       <c r="R7">
-        <v>0.9999926877684935</v>
+        <v>0.997661345370526</v>
       </c>
       <c r="S7">
-        <v>0.9999926877684935</v>
+        <v>0.997661345370526</v>
       </c>
       <c r="T7">
-        <v>0.9999975576210504</v>
+        <v>0.9990861222315073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000075730352817</v>
+        <v>1.00976939879552</v>
       </c>
       <c r="D8">
-        <v>0.99983326653996</v>
+        <v>0.9785433122313412</v>
       </c>
       <c r="E8">
-        <v>1.000203447353135</v>
+        <v>1.025651931733282</v>
       </c>
       <c r="F8">
-        <v>1.000074625205892</v>
+        <v>1.010061999898754</v>
       </c>
       <c r="G8">
-        <v>0.9996975005709962</v>
+        <v>0.9608140442956197</v>
       </c>
       <c r="H8">
-        <v>1.000074625205892</v>
+        <v>1.010061999898754</v>
       </c>
       <c r="I8">
-        <v>0.9996975005709962</v>
+        <v>0.9608140442956197</v>
       </c>
       <c r="J8">
-        <v>1.000076180826492</v>
+        <v>1.009648977622966</v>
       </c>
       <c r="K8">
-        <v>1.000074625205892</v>
+        <v>1.010061999898754</v>
       </c>
       <c r="L8">
-        <v>1.000076180826492</v>
+        <v>1.009648977622966</v>
       </c>
       <c r="M8">
-        <v>0.9998868406987442</v>
+        <v>0.9852315109592926</v>
       </c>
       <c r="N8">
-        <v>0.9998868406987442</v>
+        <v>0.9852315109592926</v>
       </c>
       <c r="O8">
-        <v>0.9998689826458161</v>
+        <v>0.9830021113833087</v>
       </c>
       <c r="P8">
-        <v>0.99994943553446</v>
+        <v>0.9935083406057797</v>
       </c>
       <c r="Q8">
-        <v>0.99994943553446</v>
+        <v>0.9935083406057797</v>
       </c>
       <c r="R8">
-        <v>0.999980732952318</v>
+        <v>0.9976467554290233</v>
       </c>
       <c r="S8">
-        <v>0.999980732952318</v>
+        <v>0.9976467554290233</v>
       </c>
       <c r="T8">
-        <v>0.9999934584748821</v>
+        <v>0.9990816107629138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000104417470247</v>
+        <v>1.009818853914429</v>
       </c>
       <c r="D9">
-        <v>0.9997701895188037</v>
+        <v>0.9784340659939379</v>
       </c>
       <c r="E9">
-        <v>1.000279553591282</v>
+        <v>1.025788752585474</v>
       </c>
       <c r="F9">
-        <v>1.000103601461373</v>
+        <v>1.01010783937164</v>
       </c>
       <c r="G9">
-        <v>0.9995826432287085</v>
+        <v>0.9606175623694357</v>
       </c>
       <c r="H9">
-        <v>1.000103601461373</v>
+        <v>1.01010783937164</v>
       </c>
       <c r="I9">
-        <v>0.9995826432287085</v>
+        <v>0.9606175623694357</v>
       </c>
       <c r="J9">
-        <v>1.000104749369936</v>
+        <v>1.009699921131057</v>
       </c>
       <c r="K9">
-        <v>1.000103601461373</v>
+        <v>1.01010783937164</v>
       </c>
       <c r="L9">
-        <v>1.000104749369936</v>
+        <v>1.009699921131057</v>
       </c>
       <c r="M9">
-        <v>0.9998436962993225</v>
+        <v>0.9851587417502465</v>
       </c>
       <c r="N9">
-        <v>0.9998436962993225</v>
+        <v>0.9851587417502465</v>
       </c>
       <c r="O9">
-        <v>0.9998191940391495</v>
+        <v>0.9829171831648104</v>
       </c>
       <c r="P9">
-        <v>0.9999303313533393</v>
+        <v>0.9934751076240445</v>
       </c>
       <c r="Q9">
-        <v>0.9999303313533393</v>
+        <v>0.9934751076240445</v>
       </c>
       <c r="R9">
-        <v>0.9999736488803477</v>
+        <v>0.9976332905609434</v>
       </c>
       <c r="S9">
-        <v>0.9999736488803477</v>
+        <v>0.9976332905609434</v>
       </c>
       <c r="T9">
-        <v>0.9999908591067251</v>
+        <v>0.9990778325609958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000226264262134</v>
+        <v>1.009915460840909</v>
       </c>
       <c r="D10">
-        <v>0.9995018985066856</v>
+        <v>0.9782214020594738</v>
       </c>
       <c r="E10">
-        <v>1.000607004084803</v>
+        <v>1.026047788653052</v>
       </c>
       <c r="F10">
-        <v>1.000223599071854</v>
+        <v>1.010203410728885</v>
       </c>
       <c r="G10">
-        <v>0.9990959398561697</v>
+        <v>0.9602315160959877</v>
       </c>
       <c r="H10">
-        <v>1.000223599071854</v>
+        <v>1.010203410728885</v>
       </c>
       <c r="I10">
-        <v>0.9990959398561697</v>
+        <v>0.9602315160959877</v>
       </c>
       <c r="J10">
-        <v>1.000227357725663</v>
+        <v>1.009796955701249</v>
       </c>
       <c r="K10">
-        <v>1.000223599071854</v>
+        <v>1.010203410728885</v>
       </c>
       <c r="L10">
-        <v>1.000227357725663</v>
+        <v>1.009796955701249</v>
       </c>
       <c r="M10">
-        <v>0.9996616487909162</v>
+        <v>0.9850142358986185</v>
       </c>
       <c r="N10">
-        <v>0.9996616487909162</v>
+        <v>0.9850142358986185</v>
       </c>
       <c r="O10">
-        <v>0.9996083986961727</v>
+        <v>0.9827499579522369</v>
       </c>
       <c r="P10">
-        <v>0.9998489655512289</v>
+        <v>0.9934106275087075</v>
       </c>
       <c r="Q10">
-        <v>0.9998489655512288</v>
+        <v>0.9934106275087075</v>
       </c>
       <c r="R10">
-        <v>0.9999426239313851</v>
+        <v>0.9976088233137519</v>
       </c>
       <c r="S10">
-        <v>0.9999426239313851</v>
+        <v>0.9976088233137519</v>
       </c>
       <c r="T10">
-        <v>0.9999803439178848</v>
+        <v>0.9990694223465928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000374365533813</v>
+        <v>1.000463423389552</v>
       </c>
       <c r="D11">
-        <v>0.9991761084579239</v>
+        <v>0.9989817482244489</v>
       </c>
       <c r="E11">
-        <v>1.001001602276631</v>
+        <v>1.001221661396084</v>
       </c>
       <c r="F11">
-        <v>1.000371949567721</v>
+        <v>1.000473761927756</v>
       </c>
       <c r="G11">
-        <v>0.998503444416267</v>
+        <v>0.9981424892817752</v>
       </c>
       <c r="H11">
-        <v>1.000371949567721</v>
+        <v>1.000473761927756</v>
       </c>
       <c r="I11">
-        <v>0.998503444416267</v>
+        <v>0.9981424892817752</v>
       </c>
       <c r="J11">
-        <v>1.000375358028095</v>
+        <v>1.000459165124189</v>
       </c>
       <c r="K11">
-        <v>1.000371949567721</v>
+        <v>1.000473761927756</v>
       </c>
       <c r="L11">
-        <v>1.000375358028095</v>
+        <v>1.000459165124189</v>
       </c>
       <c r="M11">
-        <v>0.999439401222181</v>
+        <v>0.9993008272029821</v>
       </c>
       <c r="N11">
-        <v>0.999439401222181</v>
+        <v>0.9993008272029821</v>
       </c>
       <c r="O11">
-        <v>0.9993516369674286</v>
+        <v>0.9991944675434711</v>
       </c>
       <c r="P11">
-        <v>0.9997502506706942</v>
+        <v>0.9996918054445733</v>
       </c>
       <c r="Q11">
-        <v>0.9997502506706942</v>
+        <v>0.9996918054445733</v>
       </c>
       <c r="R11">
-        <v>0.9999056753949509</v>
+        <v>0.999887294565369</v>
       </c>
       <c r="S11">
-        <v>0.9999056753949509</v>
+        <v>0.999887294565369</v>
       </c>
       <c r="T11">
-        <v>0.9999671380467419</v>
+        <v>0.9999570415573008</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9959043335620371</v>
+        <v>1.000242955257129</v>
       </c>
       <c r="D12">
-        <v>1.009021211516634</v>
+        <v>0.9994661552681624</v>
       </c>
       <c r="E12">
-        <v>0.9889588270509722</v>
+        <v>1.000640670042844</v>
       </c>
       <c r="F12">
-        <v>0.9959917097856436</v>
+        <v>1.000248225670583</v>
       </c>
       <c r="G12">
-        <v>1.016350308495692</v>
+        <v>0.9990262391453942</v>
       </c>
       <c r="H12">
-        <v>0.9959917097856436</v>
+        <v>1.000248225670583</v>
       </c>
       <c r="I12">
-        <v>1.016350308495692</v>
+        <v>0.9990262391453942</v>
       </c>
       <c r="J12">
-        <v>0.995868369777545</v>
+        <v>1.000240782199102</v>
       </c>
       <c r="K12">
-        <v>0.9959917097856436</v>
+        <v>1.000248225670583</v>
       </c>
       <c r="L12">
-        <v>0.995868369777545</v>
+        <v>1.000240782199102</v>
       </c>
       <c r="M12">
-        <v>1.006109339136618</v>
+        <v>0.999633510672248</v>
       </c>
       <c r="N12">
-        <v>1.006109339136618</v>
+        <v>0.999633510672248</v>
       </c>
       <c r="O12">
-        <v>1.00707996326329</v>
+        <v>0.9995777255375528</v>
       </c>
       <c r="P12">
-        <v>1.002736796019627</v>
+        <v>0.9998384156716931</v>
       </c>
       <c r="Q12">
-        <v>1.002736796019627</v>
+        <v>0.9998384156716931</v>
       </c>
       <c r="R12">
-        <v>1.001050524461131</v>
+        <v>0.9999408681714156</v>
       </c>
       <c r="S12">
-        <v>1.001050524461131</v>
+        <v>0.9999408681714156</v>
       </c>
       <c r="T12">
-        <v>1.000349126698087</v>
+        <v>0.9999775045972022</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9989361027224172</v>
+        <v>1.00080768167085</v>
       </c>
       <c r="D13">
-        <v>1.002335922004729</v>
+        <v>0.9982254092975772</v>
       </c>
       <c r="E13">
-        <v>0.9972146777811256</v>
+        <v>1.002128196757532</v>
       </c>
       <c r="F13">
-        <v>0.9988982328641662</v>
+        <v>1.000826428255498</v>
       </c>
       <c r="G13">
-        <v>1.004269613434494</v>
+        <v>0.9967623411511474</v>
       </c>
       <c r="H13">
-        <v>0.9988982328641662</v>
+        <v>1.000826428255498</v>
       </c>
       <c r="I13">
-        <v>1.004269613434494</v>
+        <v>0.9967623411511474</v>
       </c>
       <c r="J13">
-        <v>0.9989516865231632</v>
+        <v>1.000799962130183</v>
       </c>
       <c r="K13">
-        <v>0.9988982328641662</v>
+        <v>1.000826428255498</v>
       </c>
       <c r="L13">
-        <v>0.9989516865231632</v>
+        <v>1.000799962130183</v>
       </c>
       <c r="M13">
-        <v>1.001610649978829</v>
+        <v>0.9987811516406653</v>
       </c>
       <c r="N13">
-        <v>1.001610649978829</v>
+        <v>0.9987811516406653</v>
       </c>
       <c r="O13">
-        <v>1.001852407320796</v>
+        <v>0.9985959041929693</v>
       </c>
       <c r="P13">
-        <v>1.000706510940608</v>
+        <v>0.9994629105122761</v>
       </c>
       <c r="Q13">
-        <v>1.000706510940608</v>
+        <v>0.999462910512276</v>
       </c>
       <c r="R13">
-        <v>1.000254441421498</v>
+        <v>0.9998037899480814</v>
       </c>
       <c r="S13">
-        <v>1.000254441421498</v>
+        <v>0.9998037899480814</v>
       </c>
       <c r="T13">
-        <v>1.000101039221683</v>
+        <v>0.9999250032104644</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9900340611122644</v>
+        <v>1.001110051029341</v>
       </c>
       <c r="D14">
-        <v>1.021923694672814</v>
+        <v>0.997560491003169</v>
       </c>
       <c r="E14">
-        <v>0.9734394138906071</v>
+        <v>1.0029313560396</v>
       </c>
       <c r="F14">
-        <v>0.9900228960430021</v>
+        <v>1.001131095260251</v>
       </c>
       <c r="G14">
-        <v>1.039867892566058</v>
+        <v>0.9955520281157779</v>
       </c>
       <c r="H14">
-        <v>0.9900228960430021</v>
+        <v>1.001131095260251</v>
       </c>
       <c r="I14">
-        <v>1.039867892566058</v>
+        <v>0.9955520281157779</v>
       </c>
       <c r="J14">
-        <v>0.9900386538886654</v>
+        <v>1.001101385250696</v>
       </c>
       <c r="K14">
-        <v>0.9900228960430021</v>
+        <v>1.001131095260251</v>
       </c>
       <c r="L14">
-        <v>0.9900386538886654</v>
+        <v>1.001101385250696</v>
       </c>
       <c r="M14">
-        <v>1.014953273227362</v>
+        <v>0.9983267066832368</v>
       </c>
       <c r="N14">
-        <v>1.014953273227362</v>
+        <v>0.9983267066832368</v>
       </c>
       <c r="O14">
-        <v>1.017276747042512</v>
+        <v>0.9980713014565475</v>
       </c>
       <c r="P14">
-        <v>1.006643147499242</v>
+        <v>0.9992615028755747</v>
       </c>
       <c r="Q14">
-        <v>1.006643147499242</v>
+        <v>0.9992615028755747</v>
       </c>
       <c r="R14">
-        <v>1.002488084635182</v>
+        <v>0.9997289009717437</v>
       </c>
       <c r="S14">
-        <v>1.002488084635182</v>
+        <v>0.9997289009717437</v>
       </c>
       <c r="T14">
-        <v>1.000887768695568</v>
+        <v>0.9998977344498057</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9973586951029331</v>
+        <v>1.000397543746375</v>
       </c>
       <c r="D15">
-        <v>1.005811087511842</v>
+        <v>0.9991263967641129</v>
       </c>
       <c r="E15">
-        <v>0.992954184241805</v>
+        <v>1.001049166218134</v>
       </c>
       <c r="F15">
-        <v>0.9973603906853733</v>
+        <v>1.000405551999494</v>
       </c>
       <c r="G15">
-        <v>1.010564612316284</v>
+        <v>0.9984068710527176</v>
       </c>
       <c r="H15">
-        <v>0.9973603906853733</v>
+        <v>1.000405551999494</v>
       </c>
       <c r="I15">
-        <v>1.010564612316284</v>
+        <v>0.9984068710527176</v>
       </c>
       <c r="J15">
-        <v>0.9973579900166274</v>
+        <v>1.000394243874948</v>
       </c>
       <c r="K15">
-        <v>0.9973603906853733</v>
+        <v>1.000405551999494</v>
       </c>
       <c r="L15">
-        <v>0.9973579900166274</v>
+        <v>1.000394243874948</v>
       </c>
       <c r="M15">
-        <v>1.003961301166456</v>
+        <v>0.9994005574638326</v>
       </c>
       <c r="N15">
-        <v>1.003961301166456</v>
+        <v>0.9994005574638326</v>
       </c>
       <c r="O15">
-        <v>1.004577896614918</v>
+        <v>0.999309170563926</v>
       </c>
       <c r="P15">
-        <v>1.001760997672761</v>
+        <v>0.9997355556423866</v>
       </c>
       <c r="Q15">
-        <v>1.001760997672761</v>
+        <v>0.9997355556423866</v>
       </c>
       <c r="R15">
-        <v>1.000660845925915</v>
+        <v>0.9999030547316635</v>
       </c>
       <c r="S15">
-        <v>1.000660845925915</v>
+        <v>0.9999030547316635</v>
       </c>
       <c r="T15">
-        <v>1.000234493312478</v>
+        <v>0.9999632956092969</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.007752797616333</v>
+        <v>1.00076747361736</v>
       </c>
       <c r="D16">
-        <v>0.9829604813503729</v>
+        <v>0.9983135061723573</v>
       </c>
       <c r="E16">
-        <v>1.020489202265319</v>
+        <v>1.002025032162525</v>
       </c>
       <c r="F16">
-        <v>1.007888161843829</v>
+        <v>1.000783250503247</v>
       </c>
       <c r="G16">
-        <v>0.9689386678294309</v>
+        <v>0.9969242741400446</v>
       </c>
       <c r="H16">
-        <v>1.007888161843829</v>
+        <v>1.000783250503247</v>
       </c>
       <c r="I16">
-        <v>0.9689386678294309</v>
+        <v>0.9969242741400446</v>
       </c>
       <c r="J16">
-        <v>1.007697098784133</v>
+        <v>1.000760976558196</v>
       </c>
       <c r="K16">
-        <v>1.007888161843829</v>
+        <v>1.000783250503247</v>
       </c>
       <c r="L16">
-        <v>1.007697098784133</v>
+        <v>1.000760976558196</v>
       </c>
       <c r="M16">
-        <v>0.9883178833067821</v>
+        <v>0.9988426253491201</v>
       </c>
       <c r="N16">
-        <v>0.9883178833067821</v>
+        <v>0.9988426253491201</v>
       </c>
       <c r="O16">
-        <v>0.9865320826546456</v>
+        <v>0.9986662522901991</v>
       </c>
       <c r="P16">
-        <v>0.9948413094857979</v>
+        <v>0.9994895004004957</v>
       </c>
       <c r="Q16">
-        <v>0.9948413094857979</v>
+        <v>0.9994895004004957</v>
       </c>
       <c r="R16">
-        <v>0.9981030225753057</v>
+        <v>0.9998129379261834</v>
       </c>
       <c r="S16">
-        <v>0.9981030225753057</v>
+        <v>0.9998129379261834</v>
       </c>
       <c r="T16">
-        <v>0.9992877349482364</v>
+        <v>0.9999290855256215</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.006341894458818</v>
+        <v>1.001470607583784</v>
       </c>
       <c r="D17">
-        <v>0.9860563541011321</v>
+        <v>0.9967681205587045</v>
       </c>
       <c r="E17">
-        <v>1.01681699295929</v>
+        <v>1.003883245469275</v>
       </c>
       <c r="F17">
-        <v>1.006411233801082</v>
+        <v>1.001498688591561</v>
       </c>
       <c r="G17">
-        <v>0.9746067379867284</v>
+        <v>0.9941071738512174</v>
       </c>
       <c r="H17">
-        <v>1.006411233801082</v>
+        <v>1.001498688591561</v>
       </c>
       <c r="I17">
-        <v>0.9746067379867284</v>
+        <v>0.9941071738512174</v>
       </c>
       <c r="J17">
-        <v>1.00631336353871</v>
+        <v>1.001459051028604</v>
       </c>
       <c r="K17">
-        <v>1.006411233801082</v>
+        <v>1.001498688591561</v>
       </c>
       <c r="L17">
-        <v>1.00631336353871</v>
+        <v>1.001459051028604</v>
       </c>
       <c r="M17">
-        <v>0.9904600507627193</v>
+        <v>0.9977831124399106</v>
       </c>
       <c r="N17">
-        <v>0.9904600507627193</v>
+        <v>0.9977831124399106</v>
       </c>
       <c r="O17">
-        <v>0.9889921518755235</v>
+        <v>0.9974447818128418</v>
       </c>
       <c r="P17">
-        <v>0.9957771117755069</v>
+        <v>0.9990216378237941</v>
       </c>
       <c r="Q17">
-        <v>0.995777111775507</v>
+        <v>0.9990216378237941</v>
       </c>
       <c r="R17">
-        <v>0.9984356422819007</v>
+        <v>0.9996409005157358</v>
       </c>
       <c r="S17">
-        <v>0.9984356422819007</v>
+        <v>0.9996409005157358</v>
       </c>
       <c r="T17">
-        <v>0.9994244294742934</v>
+        <v>0.9998644811805241</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003506503778026</v>
+        <v>1.002156838524864</v>
       </c>
       <c r="D18">
-        <v>0.9922782034263015</v>
+        <v>0.9952598973617184</v>
       </c>
       <c r="E18">
-        <v>1.00943392249955</v>
+        <v>1.005696669290647</v>
       </c>
       <c r="F18">
-        <v>1.003445566125022</v>
+        <v>1.002197034265832</v>
       </c>
       <c r="G18">
-        <v>0.9859965614209223</v>
+        <v>0.9913577559332024</v>
       </c>
       <c r="H18">
-        <v>1.003445566125022</v>
+        <v>1.002197034265832</v>
       </c>
       <c r="I18">
-        <v>0.9859965614209223</v>
+        <v>0.9913577559332024</v>
       </c>
       <c r="J18">
-        <v>1.003531578821505</v>
+        <v>1.002140302733312</v>
       </c>
       <c r="K18">
-        <v>1.003445566125022</v>
+        <v>1.002197034265832</v>
       </c>
       <c r="L18">
-        <v>1.003531578821505</v>
+        <v>1.002140302733312</v>
       </c>
       <c r="M18">
-        <v>0.9947640701212138</v>
+        <v>0.996749029333257</v>
       </c>
       <c r="N18">
-        <v>0.9947640701212138</v>
+        <v>0.996749029333257</v>
       </c>
       <c r="O18">
-        <v>0.9939354478895764</v>
+        <v>0.9962526520094107</v>
       </c>
       <c r="P18">
-        <v>0.9976579021224831</v>
+        <v>0.9985650309774486</v>
       </c>
       <c r="Q18">
-        <v>0.9976579021224831</v>
+        <v>0.9985650309774486</v>
       </c>
       <c r="R18">
-        <v>0.9991048181231177</v>
+        <v>0.9994730317995444</v>
       </c>
       <c r="S18">
-        <v>0.9991048181231177</v>
+        <v>0.9994730317995444</v>
       </c>
       <c r="T18">
-        <v>0.9996987226785544</v>
+        <v>0.9998014163515957</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.003857163299408</v>
+        <v>1.000028571824802</v>
       </c>
       <c r="D19">
-        <v>0.9915034640857814</v>
+        <v>0.9999370819617461</v>
       </c>
       <c r="E19">
-        <v>1.010405547604444</v>
+        <v>1.000076949954471</v>
       </c>
       <c r="F19">
-        <v>1.003769488615508</v>
+        <v>1.000028009088691</v>
       </c>
       <c r="G19">
-        <v>0.9846038206302884</v>
+        <v>0.9998859338735541</v>
       </c>
       <c r="H19">
-        <v>1.003769488615508</v>
+        <v>1.000028009088691</v>
       </c>
       <c r="I19">
-        <v>0.9846038206302884</v>
+        <v>0.9998859338735541</v>
       </c>
       <c r="J19">
-        <v>1.003893238170542</v>
+        <v>1.000028799023039</v>
       </c>
       <c r="K19">
-        <v>1.003769488615508</v>
+        <v>1.000028009088691</v>
       </c>
       <c r="L19">
-        <v>1.003893238170542</v>
+        <v>1.000028799023039</v>
       </c>
       <c r="M19">
-        <v>0.9942485294004153</v>
+        <v>0.9999573664482964</v>
       </c>
       <c r="N19">
-        <v>0.9942485294004153</v>
+        <v>0.9999573664482964</v>
       </c>
       <c r="O19">
-        <v>0.9933335076288706</v>
+        <v>0.9999506049527795</v>
       </c>
       <c r="P19">
-        <v>0.9974221824721128</v>
+        <v>0.9999809139950945</v>
       </c>
       <c r="Q19">
-        <v>0.9974221824721129</v>
+        <v>0.9999809139950945</v>
       </c>
       <c r="R19">
-        <v>0.9990090090079616</v>
+        <v>0.9999926877684935</v>
       </c>
       <c r="S19">
-        <v>0.9990090090079616</v>
+        <v>0.9999926877684935</v>
       </c>
       <c r="T19">
-        <v>0.9996721204009953</v>
+        <v>0.9999975576210504</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.00000143923559</v>
+        <v>1.000075730352817</v>
       </c>
       <c r="D20">
-        <v>0.9999964975108259</v>
+        <v>0.99983326653996</v>
       </c>
       <c r="E20">
-        <v>1.000007668156978</v>
+        <v>1.000203447353135</v>
       </c>
       <c r="F20">
-        <v>0.9999986275797799</v>
+        <v>1.000074625205892</v>
       </c>
       <c r="G20">
-        <v>0.9999952974892248</v>
+        <v>0.9996975005709962</v>
       </c>
       <c r="H20">
-        <v>0.9999986275797799</v>
+        <v>1.000074625205892</v>
       </c>
       <c r="I20">
-        <v>0.9999952974892248</v>
+        <v>0.9996975005709962</v>
       </c>
       <c r="J20">
-        <v>1.000002591543055</v>
+        <v>1.000076180826492</v>
       </c>
       <c r="K20">
-        <v>0.9999986275797799</v>
+        <v>1.000074625205892</v>
       </c>
       <c r="L20">
-        <v>1.000002591543055</v>
+        <v>1.000076180826492</v>
       </c>
       <c r="M20">
-        <v>0.9999989445161399</v>
+        <v>0.9998868406987442</v>
       </c>
       <c r="N20">
-        <v>0.9999989445161399</v>
+        <v>0.9998868406987442</v>
       </c>
       <c r="O20">
-        <v>0.9999981288477019</v>
+        <v>0.9998689826458161</v>
       </c>
       <c r="P20">
-        <v>0.9999988388706865</v>
+        <v>0.99994943553446</v>
       </c>
       <c r="Q20">
-        <v>0.9999988388706865</v>
+        <v>0.99994943553446</v>
       </c>
       <c r="R20">
-        <v>0.9999987860479599</v>
+        <v>0.999980732952318</v>
       </c>
       <c r="S20">
-        <v>0.9999987860479599</v>
+        <v>0.999980732952318</v>
       </c>
       <c r="T20">
-        <v>1.000000353585909</v>
+        <v>0.9999934584748821</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000034936600669</v>
+        <v>1.000104417470247</v>
       </c>
       <c r="D21">
-        <v>0.9999235191595526</v>
+        <v>0.9997701895188037</v>
       </c>
       <c r="E21">
-        <v>1.000089036123364</v>
+        <v>1.000279553591282</v>
       </c>
       <c r="F21">
-        <v>1.000037950626707</v>
+        <v>1.000103601461373</v>
       </c>
       <c r="G21">
-        <v>0.9998591502879215</v>
+        <v>0.9995826432287085</v>
       </c>
       <c r="H21">
-        <v>1.000037950626707</v>
+        <v>1.000103601461373</v>
       </c>
       <c r="I21">
-        <v>0.9998591502879215</v>
+        <v>0.9995826432287085</v>
       </c>
       <c r="J21">
-        <v>1.000033691753845</v>
+        <v>1.000104749369936</v>
       </c>
       <c r="K21">
-        <v>1.000037950626707</v>
+        <v>1.000103601461373</v>
       </c>
       <c r="L21">
-        <v>1.000033691753845</v>
+        <v>1.000104749369936</v>
       </c>
       <c r="M21">
-        <v>0.9999464210208832</v>
+        <v>0.9998436962993225</v>
       </c>
       <c r="N21">
-        <v>0.9999464210208832</v>
+        <v>0.9998436962993225</v>
       </c>
       <c r="O21">
-        <v>0.9999387870671063</v>
+        <v>0.9998191940391495</v>
       </c>
       <c r="P21">
-        <v>0.999976930889491</v>
+        <v>0.9999303313533393</v>
       </c>
       <c r="Q21">
-        <v>0.999976930889491</v>
+        <v>0.9999303313533393</v>
       </c>
       <c r="R21">
-        <v>0.999992185823795</v>
+        <v>0.9999736488803477</v>
       </c>
       <c r="S21">
-        <v>0.999992185823795</v>
+        <v>0.9999736488803477</v>
       </c>
       <c r="T21">
-        <v>0.9999963807586764</v>
+        <v>0.9999908591067251</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000121891951705</v>
+        <v>1.000226264262134</v>
       </c>
       <c r="D22">
-        <v>0.9997312807263303</v>
+        <v>0.9995018985066856</v>
       </c>
       <c r="E22">
-        <v>1.000331343758211</v>
+        <v>1.000607004084803</v>
       </c>
       <c r="F22">
-        <v>1.000117267279963</v>
+        <v>1.000223599071854</v>
       </c>
       <c r="G22">
-        <v>0.9995141667865917</v>
+        <v>0.9990959398561697</v>
       </c>
       <c r="H22">
-        <v>1.000117267279963</v>
+        <v>1.000223599071854</v>
       </c>
       <c r="I22">
-        <v>0.9995141667865917</v>
+        <v>0.9990959398561697</v>
       </c>
       <c r="J22">
-        <v>1.000123785289666</v>
+        <v>1.000227357725663</v>
       </c>
       <c r="K22">
-        <v>1.000117267279963</v>
+        <v>1.000223599071854</v>
       </c>
       <c r="L22">
-        <v>1.000123785289666</v>
+        <v>1.000227357725663</v>
       </c>
       <c r="M22">
-        <v>0.999818976038129</v>
+        <v>0.9996616487909162</v>
       </c>
       <c r="N22">
-        <v>0.999818976038129</v>
+        <v>0.9996616487909162</v>
       </c>
       <c r="O22">
-        <v>0.9997897442675295</v>
+        <v>0.9996083986961727</v>
       </c>
       <c r="P22">
-        <v>0.9999184064520735</v>
+        <v>0.9998489655512289</v>
       </c>
       <c r="Q22">
-        <v>0.9999184064520735</v>
+        <v>0.9998489655512288</v>
       </c>
       <c r="R22">
-        <v>0.9999681216590458</v>
+        <v>0.9999426239313851</v>
       </c>
       <c r="S22">
-        <v>0.9999681216590458</v>
+        <v>0.9999426239313851</v>
       </c>
       <c r="T22">
-        <v>0.9999899559654111</v>
+        <v>0.9999803439178848</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000374365533813</v>
+      </c>
+      <c r="D23">
+        <v>0.9991761084579239</v>
+      </c>
+      <c r="E23">
+        <v>1.001001602276631</v>
+      </c>
+      <c r="F23">
+        <v>1.000371949567721</v>
+      </c>
+      <c r="G23">
+        <v>0.998503444416267</v>
+      </c>
+      <c r="H23">
+        <v>1.000371949567721</v>
+      </c>
+      <c r="I23">
+        <v>0.998503444416267</v>
+      </c>
+      <c r="J23">
+        <v>1.000375358028095</v>
+      </c>
+      <c r="K23">
+        <v>1.000371949567721</v>
+      </c>
+      <c r="L23">
+        <v>1.000375358028095</v>
+      </c>
+      <c r="M23">
+        <v>0.999439401222181</v>
+      </c>
+      <c r="N23">
+        <v>0.999439401222181</v>
+      </c>
+      <c r="O23">
+        <v>0.9993516369674286</v>
+      </c>
+      <c r="P23">
+        <v>0.9997502506706942</v>
+      </c>
+      <c r="Q23">
+        <v>0.9997502506706942</v>
+      </c>
+      <c r="R23">
+        <v>0.9999056753949509</v>
+      </c>
+      <c r="S23">
+        <v>0.9999056753949509</v>
+      </c>
+      <c r="T23">
+        <v>0.9999671380467419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9959043335620371</v>
+      </c>
+      <c r="D24">
+        <v>1.009021211516634</v>
+      </c>
+      <c r="E24">
+        <v>0.9889588270509722</v>
+      </c>
+      <c r="F24">
+        <v>0.9959917097856436</v>
+      </c>
+      <c r="G24">
+        <v>1.016350308495692</v>
+      </c>
+      <c r="H24">
+        <v>0.9959917097856436</v>
+      </c>
+      <c r="I24">
+        <v>1.016350308495692</v>
+      </c>
+      <c r="J24">
+        <v>0.995868369777545</v>
+      </c>
+      <c r="K24">
+        <v>0.9959917097856436</v>
+      </c>
+      <c r="L24">
+        <v>0.995868369777545</v>
+      </c>
+      <c r="M24">
+        <v>1.006109339136618</v>
+      </c>
+      <c r="N24">
+        <v>1.006109339136618</v>
+      </c>
+      <c r="O24">
+        <v>1.00707996326329</v>
+      </c>
+      <c r="P24">
+        <v>1.002736796019627</v>
+      </c>
+      <c r="Q24">
+        <v>1.002736796019627</v>
+      </c>
+      <c r="R24">
+        <v>1.001050524461131</v>
+      </c>
+      <c r="S24">
+        <v>1.001050524461131</v>
+      </c>
+      <c r="T24">
+        <v>1.000349126698087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9989361027224172</v>
+      </c>
+      <c r="D25">
+        <v>1.002335922004729</v>
+      </c>
+      <c r="E25">
+        <v>0.9972146777811256</v>
+      </c>
+      <c r="F25">
+        <v>0.9988982328641662</v>
+      </c>
+      <c r="G25">
+        <v>1.004269613434494</v>
+      </c>
+      <c r="H25">
+        <v>0.9988982328641662</v>
+      </c>
+      <c r="I25">
+        <v>1.004269613434494</v>
+      </c>
+      <c r="J25">
+        <v>0.9989516865231632</v>
+      </c>
+      <c r="K25">
+        <v>0.9988982328641662</v>
+      </c>
+      <c r="L25">
+        <v>0.9989516865231632</v>
+      </c>
+      <c r="M25">
+        <v>1.001610649978829</v>
+      </c>
+      <c r="N25">
+        <v>1.001610649978829</v>
+      </c>
+      <c r="O25">
+        <v>1.001852407320796</v>
+      </c>
+      <c r="P25">
+        <v>1.000706510940608</v>
+      </c>
+      <c r="Q25">
+        <v>1.000706510940608</v>
+      </c>
+      <c r="R25">
+        <v>1.000254441421498</v>
+      </c>
+      <c r="S25">
+        <v>1.000254441421498</v>
+      </c>
+      <c r="T25">
+        <v>1.000101039221683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9900340611122644</v>
+      </c>
+      <c r="D26">
+        <v>1.021923694672814</v>
+      </c>
+      <c r="E26">
+        <v>0.9734394138906071</v>
+      </c>
+      <c r="F26">
+        <v>0.9900228960430021</v>
+      </c>
+      <c r="G26">
+        <v>1.039867892566058</v>
+      </c>
+      <c r="H26">
+        <v>0.9900228960430021</v>
+      </c>
+      <c r="I26">
+        <v>1.039867892566058</v>
+      </c>
+      <c r="J26">
+        <v>0.9900386538886654</v>
+      </c>
+      <c r="K26">
+        <v>0.9900228960430021</v>
+      </c>
+      <c r="L26">
+        <v>0.9900386538886654</v>
+      </c>
+      <c r="M26">
+        <v>1.014953273227362</v>
+      </c>
+      <c r="N26">
+        <v>1.014953273227362</v>
+      </c>
+      <c r="O26">
+        <v>1.017276747042512</v>
+      </c>
+      <c r="P26">
+        <v>1.006643147499242</v>
+      </c>
+      <c r="Q26">
+        <v>1.006643147499242</v>
+      </c>
+      <c r="R26">
+        <v>1.002488084635182</v>
+      </c>
+      <c r="S26">
+        <v>1.002488084635182</v>
+      </c>
+      <c r="T26">
+        <v>1.000887768695568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9973586951029331</v>
+      </c>
+      <c r="D27">
+        <v>1.005811087511842</v>
+      </c>
+      <c r="E27">
+        <v>0.992954184241805</v>
+      </c>
+      <c r="F27">
+        <v>0.9973603906853733</v>
+      </c>
+      <c r="G27">
+        <v>1.010564612316284</v>
+      </c>
+      <c r="H27">
+        <v>0.9973603906853733</v>
+      </c>
+      <c r="I27">
+        <v>1.010564612316284</v>
+      </c>
+      <c r="J27">
+        <v>0.9973579900166274</v>
+      </c>
+      <c r="K27">
+        <v>0.9973603906853733</v>
+      </c>
+      <c r="L27">
+        <v>0.9973579900166274</v>
+      </c>
+      <c r="M27">
+        <v>1.003961301166456</v>
+      </c>
+      <c r="N27">
+        <v>1.003961301166456</v>
+      </c>
+      <c r="O27">
+        <v>1.004577896614918</v>
+      </c>
+      <c r="P27">
+        <v>1.001760997672761</v>
+      </c>
+      <c r="Q27">
+        <v>1.001760997672761</v>
+      </c>
+      <c r="R27">
+        <v>1.000660845925915</v>
+      </c>
+      <c r="S27">
+        <v>1.000660845925915</v>
+      </c>
+      <c r="T27">
+        <v>1.000234493312478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.007752797616333</v>
+      </c>
+      <c r="D28">
+        <v>0.9829604813503729</v>
+      </c>
+      <c r="E28">
+        <v>1.020489202265319</v>
+      </c>
+      <c r="F28">
+        <v>1.007888161843829</v>
+      </c>
+      <c r="G28">
+        <v>0.9689386678294309</v>
+      </c>
+      <c r="H28">
+        <v>1.007888161843829</v>
+      </c>
+      <c r="I28">
+        <v>0.9689386678294309</v>
+      </c>
+      <c r="J28">
+        <v>1.007697098784133</v>
+      </c>
+      <c r="K28">
+        <v>1.007888161843829</v>
+      </c>
+      <c r="L28">
+        <v>1.007697098784133</v>
+      </c>
+      <c r="M28">
+        <v>0.9883178833067821</v>
+      </c>
+      <c r="N28">
+        <v>0.9883178833067821</v>
+      </c>
+      <c r="O28">
+        <v>0.9865320826546456</v>
+      </c>
+      <c r="P28">
+        <v>0.9948413094857979</v>
+      </c>
+      <c r="Q28">
+        <v>0.9948413094857979</v>
+      </c>
+      <c r="R28">
+        <v>0.9981030225753057</v>
+      </c>
+      <c r="S28">
+        <v>0.9981030225753057</v>
+      </c>
+      <c r="T28">
+        <v>0.9992877349482364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.006341894458818</v>
+      </c>
+      <c r="D29">
+        <v>0.9860563541011321</v>
+      </c>
+      <c r="E29">
+        <v>1.01681699295929</v>
+      </c>
+      <c r="F29">
+        <v>1.006411233801082</v>
+      </c>
+      <c r="G29">
+        <v>0.9746067379867284</v>
+      </c>
+      <c r="H29">
+        <v>1.006411233801082</v>
+      </c>
+      <c r="I29">
+        <v>0.9746067379867284</v>
+      </c>
+      <c r="J29">
+        <v>1.00631336353871</v>
+      </c>
+      <c r="K29">
+        <v>1.006411233801082</v>
+      </c>
+      <c r="L29">
+        <v>1.00631336353871</v>
+      </c>
+      <c r="M29">
+        <v>0.9904600507627193</v>
+      </c>
+      <c r="N29">
+        <v>0.9904600507627193</v>
+      </c>
+      <c r="O29">
+        <v>0.9889921518755235</v>
+      </c>
+      <c r="P29">
+        <v>0.9957771117755069</v>
+      </c>
+      <c r="Q29">
+        <v>0.995777111775507</v>
+      </c>
+      <c r="R29">
+        <v>0.9984356422819007</v>
+      </c>
+      <c r="S29">
+        <v>0.9984356422819007</v>
+      </c>
+      <c r="T29">
+        <v>0.9994244294742934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.003506503778026</v>
+      </c>
+      <c r="D30">
+        <v>0.9922782034263015</v>
+      </c>
+      <c r="E30">
+        <v>1.00943392249955</v>
+      </c>
+      <c r="F30">
+        <v>1.003445566125022</v>
+      </c>
+      <c r="G30">
+        <v>0.9859965614209223</v>
+      </c>
+      <c r="H30">
+        <v>1.003445566125022</v>
+      </c>
+      <c r="I30">
+        <v>0.9859965614209223</v>
+      </c>
+      <c r="J30">
+        <v>1.003531578821505</v>
+      </c>
+      <c r="K30">
+        <v>1.003445566125022</v>
+      </c>
+      <c r="L30">
+        <v>1.003531578821505</v>
+      </c>
+      <c r="M30">
+        <v>0.9947640701212138</v>
+      </c>
+      <c r="N30">
+        <v>0.9947640701212138</v>
+      </c>
+      <c r="O30">
+        <v>0.9939354478895764</v>
+      </c>
+      <c r="P30">
+        <v>0.9976579021224831</v>
+      </c>
+      <c r="Q30">
+        <v>0.9976579021224831</v>
+      </c>
+      <c r="R30">
+        <v>0.9991048181231177</v>
+      </c>
+      <c r="S30">
+        <v>0.9991048181231177</v>
+      </c>
+      <c r="T30">
+        <v>0.9996987226785544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.003857163299408</v>
+      </c>
+      <c r="D31">
+        <v>0.9915034640857814</v>
+      </c>
+      <c r="E31">
+        <v>1.010405547604444</v>
+      </c>
+      <c r="F31">
+        <v>1.003769488615508</v>
+      </c>
+      <c r="G31">
+        <v>0.9846038206302884</v>
+      </c>
+      <c r="H31">
+        <v>1.003769488615508</v>
+      </c>
+      <c r="I31">
+        <v>0.9846038206302884</v>
+      </c>
+      <c r="J31">
+        <v>1.003893238170542</v>
+      </c>
+      <c r="K31">
+        <v>1.003769488615508</v>
+      </c>
+      <c r="L31">
+        <v>1.003893238170542</v>
+      </c>
+      <c r="M31">
+        <v>0.9942485294004153</v>
+      </c>
+      <c r="N31">
+        <v>0.9942485294004153</v>
+      </c>
+      <c r="O31">
+        <v>0.9933335076288706</v>
+      </c>
+      <c r="P31">
+        <v>0.9974221824721128</v>
+      </c>
+      <c r="Q31">
+        <v>0.9974221824721129</v>
+      </c>
+      <c r="R31">
+        <v>0.9990090090079616</v>
+      </c>
+      <c r="S31">
+        <v>0.9990090090079616</v>
+      </c>
+      <c r="T31">
+        <v>0.9996721204009953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.009211579452055</v>
+      </c>
+      <c r="D32">
+        <v>0.9797603939726024</v>
+      </c>
+      <c r="E32">
+        <v>1.024276655890411</v>
+      </c>
+      <c r="F32">
+        <v>1.009422069041096</v>
+      </c>
+      <c r="G32">
+        <v>0.9630757112328771</v>
+      </c>
+      <c r="H32">
+        <v>1.009422069041096</v>
+      </c>
+      <c r="I32">
+        <v>0.9630757112328771</v>
+      </c>
+      <c r="J32">
+        <v>1.009124968219178</v>
+      </c>
+      <c r="K32">
+        <v>1.009422069041096</v>
+      </c>
+      <c r="L32">
+        <v>1.009124968219178</v>
+      </c>
+      <c r="M32">
+        <v>0.9861003397260277</v>
+      </c>
+      <c r="N32">
+        <v>0.9861003397260277</v>
+      </c>
+      <c r="O32">
+        <v>0.983987024474886</v>
+      </c>
+      <c r="P32">
+        <v>0.9938742494977171</v>
+      </c>
+      <c r="Q32">
+        <v>0.993874249497717</v>
+      </c>
+      <c r="R32">
+        <v>0.9977612043835616</v>
+      </c>
+      <c r="S32">
+        <v>0.9977612043835616</v>
+      </c>
+      <c r="T32">
+        <v>0.9991452296347031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.005507684736842</v>
+      </c>
+      <c r="D33">
+        <v>0.9878464089473684</v>
+      </c>
+      <c r="E33">
+        <v>1.015094814736842</v>
+      </c>
+      <c r="F33">
+        <v>1.005209298947369</v>
+      </c>
+      <c r="G33">
+        <v>0.9780797847368422</v>
+      </c>
+      <c r="H33">
+        <v>1.005209298947369</v>
+      </c>
+      <c r="I33">
+        <v>0.9780797847368422</v>
+      </c>
+      <c r="J33">
+        <v>1.005630478947368</v>
+      </c>
+      <c r="K33">
+        <v>1.005209298947369</v>
+      </c>
+      <c r="L33">
+        <v>1.005630478947368</v>
+      </c>
+      <c r="M33">
+        <v>0.9918551318421054</v>
+      </c>
+      <c r="N33">
+        <v>0.9918551318421054</v>
+      </c>
+      <c r="O33">
+        <v>0.9905188908771931</v>
+      </c>
+      <c r="P33">
+        <v>0.9963065208771932</v>
+      </c>
+      <c r="Q33">
+        <v>0.9963065208771931</v>
+      </c>
+      <c r="R33">
+        <v>0.9985322153947369</v>
+      </c>
+      <c r="S33">
+        <v>0.9985322153947369</v>
+      </c>
+      <c r="T33">
+        <v>0.9995614118421052</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.0108689</v>
+      </c>
+      <c r="D34">
+        <v>0.9761179257894738</v>
+      </c>
+      <c r="E34">
+        <v>1.028655931578947</v>
+      </c>
+      <c r="F34">
+        <v>1.011108810526316</v>
+      </c>
+      <c r="G34">
+        <v>0.956435546842105</v>
+      </c>
+      <c r="H34">
+        <v>1.011108810526316</v>
+      </c>
+      <c r="I34">
+        <v>0.956435546842105</v>
+      </c>
+      <c r="J34">
+        <v>1.010770168421053</v>
+      </c>
+      <c r="K34">
+        <v>1.011108810526316</v>
+      </c>
+      <c r="L34">
+        <v>1.010770168421053</v>
+      </c>
+      <c r="M34">
+        <v>0.983602857631579</v>
+      </c>
+      <c r="N34">
+        <v>0.983602857631579</v>
+      </c>
+      <c r="O34">
+        <v>0.9811078803508773</v>
+      </c>
+      <c r="P34">
+        <v>0.9927715085964913</v>
+      </c>
+      <c r="Q34">
+        <v>0.9927715085964911</v>
+      </c>
+      <c r="R34">
+        <v>0.9973558340789473</v>
+      </c>
+      <c r="S34">
+        <v>0.9973558340789473</v>
+      </c>
+      <c r="T34">
+        <v>0.9989928805263159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.013907975508295</v>
+      </c>
+      <c r="D35">
+        <v>0.9693589669787827</v>
+      </c>
+      <c r="E35">
+        <v>1.037570665524251</v>
+      </c>
+      <c r="F35">
+        <v>1.01355470115431</v>
+      </c>
+      <c r="G35">
+        <v>0.9444988639028941</v>
+      </c>
+      <c r="H35">
+        <v>1.01355470115431</v>
+      </c>
+      <c r="I35">
+        <v>0.9444988639028941</v>
+      </c>
+      <c r="J35">
+        <v>1.014053406418844</v>
+      </c>
+      <c r="K35">
+        <v>1.01355470115431</v>
+      </c>
+      <c r="L35">
+        <v>1.014053406418844</v>
+      </c>
+      <c r="M35">
+        <v>0.979276135160869</v>
+      </c>
+      <c r="N35">
+        <v>0.979276135160869</v>
+      </c>
+      <c r="O35">
+        <v>0.9759704124335068</v>
+      </c>
+      <c r="P35">
+        <v>0.9907023238253491</v>
+      </c>
+      <c r="Q35">
+        <v>0.9907023238253491</v>
+      </c>
+      <c r="R35">
+        <v>0.9964154181575893</v>
+      </c>
+      <c r="S35">
+        <v>0.9964154181575893</v>
+      </c>
+      <c r="T35">
+        <v>0.9988240965812292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.00000143923559</v>
+      </c>
+      <c r="D36">
+        <v>0.9999964975108259</v>
+      </c>
+      <c r="E36">
+        <v>1.000007668156978</v>
+      </c>
+      <c r="F36">
+        <v>0.9999986275797799</v>
+      </c>
+      <c r="G36">
+        <v>0.9999952974892248</v>
+      </c>
+      <c r="H36">
+        <v>0.9999986275797799</v>
+      </c>
+      <c r="I36">
+        <v>0.9999952974892248</v>
+      </c>
+      <c r="J36">
+        <v>1.000002591543055</v>
+      </c>
+      <c r="K36">
+        <v>0.9999986275797799</v>
+      </c>
+      <c r="L36">
+        <v>1.000002591543055</v>
+      </c>
+      <c r="M36">
+        <v>0.9999989445161399</v>
+      </c>
+      <c r="N36">
+        <v>0.9999989445161399</v>
+      </c>
+      <c r="O36">
+        <v>0.9999981288477019</v>
+      </c>
+      <c r="P36">
+        <v>0.9999988388706865</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999988388706865</v>
+      </c>
+      <c r="R36">
+        <v>0.9999987860479599</v>
+      </c>
+      <c r="S36">
+        <v>0.9999987860479599</v>
+      </c>
+      <c r="T36">
+        <v>1.000000353585909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000034936600669</v>
+      </c>
+      <c r="D37">
+        <v>0.9999235191595526</v>
+      </c>
+      <c r="E37">
+        <v>1.000089036123364</v>
+      </c>
+      <c r="F37">
+        <v>1.000037950626707</v>
+      </c>
+      <c r="G37">
+        <v>0.9998591502879215</v>
+      </c>
+      <c r="H37">
+        <v>1.000037950626707</v>
+      </c>
+      <c r="I37">
+        <v>0.9998591502879215</v>
+      </c>
+      <c r="J37">
+        <v>1.000033691753845</v>
+      </c>
+      <c r="K37">
+        <v>1.000037950626707</v>
+      </c>
+      <c r="L37">
+        <v>1.000033691753845</v>
+      </c>
+      <c r="M37">
+        <v>0.9999464210208832</v>
+      </c>
+      <c r="N37">
+        <v>0.9999464210208832</v>
+      </c>
+      <c r="O37">
+        <v>0.9999387870671063</v>
+      </c>
+      <c r="P37">
+        <v>0.999976930889491</v>
+      </c>
+      <c r="Q37">
+        <v>0.999976930889491</v>
+      </c>
+      <c r="R37">
+        <v>0.999992185823795</v>
+      </c>
+      <c r="S37">
+        <v>0.999992185823795</v>
+      </c>
+      <c r="T37">
+        <v>0.9999963807586764</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000121891951705</v>
+      </c>
+      <c r="D38">
+        <v>0.9997312807263303</v>
+      </c>
+      <c r="E38">
+        <v>1.000331343758211</v>
+      </c>
+      <c r="F38">
+        <v>1.000117267279963</v>
+      </c>
+      <c r="G38">
+        <v>0.9995141667865917</v>
+      </c>
+      <c r="H38">
+        <v>1.000117267279963</v>
+      </c>
+      <c r="I38">
+        <v>0.9995141667865917</v>
+      </c>
+      <c r="J38">
+        <v>1.000123785289666</v>
+      </c>
+      <c r="K38">
+        <v>1.000117267279963</v>
+      </c>
+      <c r="L38">
+        <v>1.000123785289666</v>
+      </c>
+      <c r="M38">
+        <v>0.999818976038129</v>
+      </c>
+      <c r="N38">
+        <v>0.999818976038129</v>
+      </c>
+      <c r="O38">
+        <v>0.9997897442675295</v>
+      </c>
+      <c r="P38">
+        <v>0.9999184064520735</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999184064520735</v>
+      </c>
+      <c r="R38">
+        <v>0.9999681216590458</v>
+      </c>
+      <c r="S38">
+        <v>0.9999681216590458</v>
+      </c>
+      <c r="T38">
+        <v>0.9999899559654111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000284961310603</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9993707701069157</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000785756921173</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000266019074493</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9988671932076201</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000266019074493</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9988671932076201</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000292749067281</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000266019074493</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000292749067281</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9995799711374505</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9995799711374505</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9995102374606054</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9998086537831311</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9998086537831311</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999229951059715</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999229951059715</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999779082813475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.00379008194341</v>
+      </c>
+      <c r="D40">
+        <v>0.9916524552513361</v>
+      </c>
+      <c r="E40">
+        <v>1.010211054926376</v>
+      </c>
+      <c r="F40">
+        <v>1.003713829683104</v>
+      </c>
+      <c r="G40">
+        <v>0.9848679334317603</v>
+      </c>
+      <c r="H40">
+        <v>1.003713829683104</v>
+      </c>
+      <c r="I40">
+        <v>0.9848679334317603</v>
+      </c>
+      <c r="J40">
+        <v>1.00382145762746</v>
+      </c>
+      <c r="K40">
+        <v>1.003713829683104</v>
+      </c>
+      <c r="L40">
+        <v>1.00382145762746</v>
+      </c>
+      <c r="M40">
+        <v>0.9943446955296099</v>
+      </c>
+      <c r="N40">
+        <v>0.9943446955296099</v>
+      </c>
+      <c r="O40">
+        <v>0.9934472821035186</v>
+      </c>
+      <c r="P40">
+        <v>0.9974677402474411</v>
+      </c>
+      <c r="Q40">
+        <v>0.9974677402474411</v>
+      </c>
+      <c r="R40">
+        <v>0.9990292626063568</v>
+      </c>
+      <c r="S40">
+        <v>0.9990292626063568</v>
+      </c>
+      <c r="T40">
+        <v>0.999676135477241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9997310807427076</v>
+      </c>
+      <c r="D41">
+        <v>1.000593376937547</v>
+      </c>
+      <c r="E41">
+        <v>0.9992634840499959</v>
+      </c>
+      <c r="F41">
+        <v>0.9997452713818271</v>
+      </c>
+      <c r="G41">
+        <v>1.001070434827181</v>
+      </c>
+      <c r="H41">
+        <v>0.9997452713818271</v>
+      </c>
+      <c r="I41">
+        <v>1.001070434827181</v>
+      </c>
+      <c r="J41">
+        <v>0.9997252367797114</v>
+      </c>
+      <c r="K41">
+        <v>0.9997452713818271</v>
+      </c>
+      <c r="L41">
+        <v>0.9997252367797114</v>
+      </c>
+      <c r="M41">
+        <v>1.000397835803446</v>
+      </c>
+      <c r="N41">
+        <v>1.000397835803446</v>
+      </c>
+      <c r="O41">
+        <v>1.00046301618148</v>
+      </c>
+      <c r="P41">
+        <v>1.000180314329573</v>
+      </c>
+      <c r="Q41">
+        <v>1.000180314329573</v>
+      </c>
+      <c r="R41">
+        <v>1.000071553592637</v>
+      </c>
+      <c r="S41">
+        <v>1.000071553592637</v>
+      </c>
+      <c r="T41">
+        <v>1.000021480786495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.006545277050145</v>
+      </c>
+      <c r="D42">
+        <v>0.9855974474909469</v>
+      </c>
+      <c r="E42">
+        <v>1.017486886357885</v>
+      </c>
+      <c r="F42">
+        <v>1.006521253859106</v>
+      </c>
+      <c r="G42">
+        <v>0.9738278097535065</v>
+      </c>
+      <c r="H42">
+        <v>1.006521253859106</v>
+      </c>
+      <c r="I42">
+        <v>0.9738278097535065</v>
+      </c>
+      <c r="J42">
+        <v>1.006555159983633</v>
+      </c>
+      <c r="K42">
+        <v>1.006521253859106</v>
+      </c>
+      <c r="L42">
+        <v>1.006555159983633</v>
+      </c>
+      <c r="M42">
+        <v>0.9901914848685698</v>
+      </c>
+      <c r="N42">
+        <v>0.9901914848685698</v>
+      </c>
+      <c r="O42">
+        <v>0.9886601390760288</v>
+      </c>
+      <c r="P42">
+        <v>0.9956347411987485</v>
+      </c>
+      <c r="Q42">
+        <v>0.9956347411987485</v>
+      </c>
+      <c r="R42">
+        <v>0.9983563693638378</v>
+      </c>
+      <c r="S42">
+        <v>0.9983563693638378</v>
+      </c>
+      <c r="T42">
+        <v>0.9994223057492038</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,22 +85,28 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -76,22 +115,13 @@
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000405551999494</v>
+        <v>1.000075730352817</v>
       </c>
       <c r="D3">
-        <v>0.9984068710527176</v>
+        <v>0.99983326653996</v>
       </c>
       <c r="E3">
-        <v>1.000394243874948</v>
+        <v>1.000203447353135</v>
       </c>
       <c r="F3">
-        <v>1.000405551999494</v>
+        <v>1.000074625205892</v>
       </c>
       <c r="G3">
-        <v>1.001049166218134</v>
+        <v>0.9996975005709962</v>
       </c>
       <c r="H3">
-        <v>0.9991263967641129</v>
+        <v>1.000074625205892</v>
       </c>
       <c r="I3">
-        <v>1.000397543746375</v>
+        <v>0.9996975005709962</v>
       </c>
       <c r="J3">
-        <v>0.9984068710527176</v>
+        <v>1.000076180826492</v>
       </c>
       <c r="K3">
-        <v>1.000405551999494</v>
+        <v>1.000074625205892</v>
       </c>
       <c r="L3">
-        <v>1.000394243874948</v>
+        <v>1.000076180826492</v>
       </c>
       <c r="M3">
-        <v>0.9994005574638326</v>
+        <v>0.9998868406987442</v>
       </c>
       <c r="N3">
-        <v>0.9994005574638326</v>
+        <v>0.9998868406987442</v>
       </c>
       <c r="O3">
-        <v>0.999309170563926</v>
+        <v>0.9998689826458161</v>
       </c>
       <c r="P3">
-        <v>0.9997355556423866</v>
+        <v>0.99994943553446</v>
       </c>
       <c r="Q3">
-        <v>0.9997355556423866</v>
+        <v>0.99994943553446</v>
       </c>
       <c r="R3">
-        <v>0.9999030547316635</v>
+        <v>0.999980732952318</v>
       </c>
       <c r="S3">
-        <v>0.9999030547316635</v>
+        <v>0.999980732952318</v>
       </c>
       <c r="T3">
-        <v>0.9999632956092969</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999934584748821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000783250503247</v>
+        <v>1.00379008194341</v>
       </c>
       <c r="D4">
-        <v>0.9969242741400446</v>
+        <v>0.9916524552513361</v>
       </c>
       <c r="E4">
-        <v>1.000760976558196</v>
+        <v>1.010211054926376</v>
       </c>
       <c r="F4">
-        <v>1.000783250503247</v>
+        <v>1.003713829683104</v>
       </c>
       <c r="G4">
-        <v>1.002025032162525</v>
+        <v>0.9848679334317603</v>
       </c>
       <c r="H4">
-        <v>0.9983135061723573</v>
+        <v>1.003713829683104</v>
       </c>
       <c r="I4">
-        <v>1.00076747361736</v>
+        <v>0.9848679334317603</v>
       </c>
       <c r="J4">
-        <v>0.9969242741400446</v>
+        <v>1.00382145762746</v>
       </c>
       <c r="K4">
-        <v>1.000783250503247</v>
+        <v>1.003713829683104</v>
       </c>
       <c r="L4">
-        <v>1.000760976558196</v>
+        <v>1.00382145762746</v>
       </c>
       <c r="M4">
-        <v>0.9988426253491201</v>
+        <v>0.9943446955296099</v>
       </c>
       <c r="N4">
-        <v>0.9988426253491201</v>
+        <v>0.9943446955296099</v>
       </c>
       <c r="O4">
-        <v>0.9986662522901991</v>
+        <v>0.9934472821035186</v>
       </c>
       <c r="P4">
-        <v>0.9994895004004957</v>
+        <v>0.9974677402474411</v>
       </c>
       <c r="Q4">
-        <v>0.9994895004004957</v>
+        <v>0.9974677402474411</v>
       </c>
       <c r="R4">
-        <v>0.9998129379261834</v>
+        <v>0.9990292626063568</v>
       </c>
       <c r="S4">
-        <v>0.9998129379261834</v>
+        <v>0.9990292626063568</v>
       </c>
       <c r="T4">
-        <v>0.9999290855256215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.999676135477241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001498688591561</v>
+        <v>1.004240478069163</v>
       </c>
       <c r="D5">
-        <v>0.9941071738512174</v>
+        <v>0.9906626675936638</v>
       </c>
       <c r="E5">
-        <v>1.001459051028604</v>
+        <v>1.011399966498563</v>
       </c>
       <c r="F5">
-        <v>1.001498688591561</v>
+        <v>1.004173121023058</v>
       </c>
       <c r="G5">
-        <v>1.003883245469275</v>
+        <v>0.9830630353890515</v>
       </c>
       <c r="H5">
-        <v>0.9967681205587045</v>
+        <v>1.004173121023058</v>
       </c>
       <c r="I5">
-        <v>1.001470607583784</v>
+        <v>0.9830630353890515</v>
       </c>
       <c r="J5">
-        <v>0.9941071738512174</v>
+        <v>1.004268197867439</v>
       </c>
       <c r="K5">
-        <v>1.001498688591561</v>
+        <v>1.004173121023058</v>
       </c>
       <c r="L5">
-        <v>1.001459051028604</v>
+        <v>1.004268197867439</v>
       </c>
       <c r="M5">
-        <v>0.9977831124399106</v>
+        <v>0.9936656166282452</v>
       </c>
       <c r="N5">
-        <v>0.9977831124399106</v>
+        <v>0.9936656166282452</v>
       </c>
       <c r="O5">
-        <v>0.9974447818128418</v>
+        <v>0.9926646336167181</v>
       </c>
       <c r="P5">
-        <v>0.9990216378237941</v>
+        <v>0.997168118093183</v>
       </c>
       <c r="Q5">
-        <v>0.9990216378237941</v>
+        <v>0.997168118093183</v>
       </c>
       <c r="R5">
-        <v>0.9996409005157358</v>
+        <v>0.9989193688256517</v>
       </c>
       <c r="S5">
-        <v>0.9996409005157358</v>
+        <v>0.9989193688256517</v>
       </c>
       <c r="T5">
-        <v>0.9998644811805241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9996345777401565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002197034265832</v>
+        <v>1.013907975508295</v>
       </c>
       <c r="D6">
-        <v>0.9913577559332024</v>
+        <v>0.9693589669787827</v>
       </c>
       <c r="E6">
-        <v>1.002140302733312</v>
+        <v>1.037570665524251</v>
       </c>
       <c r="F6">
-        <v>1.002197034265832</v>
+        <v>1.01355470115431</v>
       </c>
       <c r="G6">
-        <v>1.005696669290647</v>
+        <v>0.9444988639028941</v>
       </c>
       <c r="H6">
-        <v>0.9952598973617184</v>
+        <v>1.01355470115431</v>
       </c>
       <c r="I6">
-        <v>1.002156838524864</v>
+        <v>0.9444988639028941</v>
       </c>
       <c r="J6">
-        <v>0.9913577559332024</v>
+        <v>1.014053406418844</v>
       </c>
       <c r="K6">
-        <v>1.002197034265832</v>
+        <v>1.01355470115431</v>
       </c>
       <c r="L6">
-        <v>1.002140302733312</v>
+        <v>1.014053406418844</v>
       </c>
       <c r="M6">
-        <v>0.996749029333257</v>
+        <v>0.979276135160869</v>
       </c>
       <c r="N6">
-        <v>0.996749029333257</v>
+        <v>0.979276135160869</v>
       </c>
       <c r="O6">
-        <v>0.9962526520094107</v>
+        <v>0.9759704124335068</v>
       </c>
       <c r="P6">
-        <v>0.9985650309774486</v>
+        <v>0.9907023238253491</v>
       </c>
       <c r="Q6">
-        <v>0.9985650309774486</v>
+        <v>0.9907023238253491</v>
       </c>
       <c r="R6">
-        <v>0.9994730317995444</v>
+        <v>0.9964154181575893</v>
       </c>
       <c r="S6">
-        <v>0.9994730317995444</v>
+        <v>0.9964154181575893</v>
       </c>
       <c r="T6">
-        <v>0.9998014163515957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9988240965812292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000028009088691</v>
+        <v>1.000463423389552</v>
       </c>
       <c r="D7">
-        <v>0.999885933873554</v>
+        <v>0.9989817482244489</v>
       </c>
       <c r="E7">
-        <v>1.000028799023039</v>
+        <v>1.001221661396084</v>
       </c>
       <c r="F7">
-        <v>1.000028009088691</v>
+        <v>1.000473761927756</v>
       </c>
       <c r="G7">
-        <v>1.000076949954471</v>
+        <v>0.9981424892817752</v>
       </c>
       <c r="H7">
-        <v>0.9999370819617461</v>
+        <v>1.000473761927756</v>
       </c>
       <c r="I7">
-        <v>1.000028571824802</v>
+        <v>0.9981424892817752</v>
       </c>
       <c r="J7">
-        <v>0.999885933873554</v>
+        <v>1.000459165124189</v>
       </c>
       <c r="K7">
-        <v>1.000028009088691</v>
+        <v>1.000473761927756</v>
       </c>
       <c r="L7">
-        <v>1.000028799023039</v>
+        <v>1.000459165124189</v>
       </c>
       <c r="M7">
-        <v>0.9999573664482964</v>
+        <v>0.9993008272029821</v>
       </c>
       <c r="N7">
-        <v>0.9999573664482964</v>
+        <v>0.9993008272029821</v>
       </c>
       <c r="O7">
-        <v>0.9999506049527795</v>
+        <v>0.9991944675434711</v>
       </c>
       <c r="P7">
-        <v>0.9999809139950945</v>
+        <v>0.9996918054445733</v>
       </c>
       <c r="Q7">
-        <v>0.9999809139950945</v>
+        <v>0.9996918054445733</v>
       </c>
       <c r="R7">
-        <v>0.9999926877684935</v>
+        <v>0.999887294565369</v>
       </c>
       <c r="S7">
-        <v>0.9999926877684935</v>
+        <v>0.999887294565369</v>
       </c>
       <c r="T7">
-        <v>0.9999975576210504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999570415573008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000074625205892</v>
+        <v>1.000034936600669</v>
       </c>
       <c r="D8">
-        <v>0.9996975005709962</v>
+        <v>0.9999235191595526</v>
       </c>
       <c r="E8">
-        <v>1.000076180826492</v>
+        <v>1.000089036123364</v>
       </c>
       <c r="F8">
-        <v>1.000074625205892</v>
+        <v>1.000037950626707</v>
       </c>
       <c r="G8">
-        <v>1.000203447353135</v>
+        <v>0.9998591502879215</v>
       </c>
       <c r="H8">
-        <v>0.99983326653996</v>
+        <v>1.000037950626707</v>
       </c>
       <c r="I8">
-        <v>1.000075730352817</v>
+        <v>0.9998591502879215</v>
       </c>
       <c r="J8">
-        <v>0.9996975005709962</v>
+        <v>1.000033691753845</v>
       </c>
       <c r="K8">
-        <v>1.000074625205892</v>
+        <v>1.000037950626707</v>
       </c>
       <c r="L8">
-        <v>1.000076180826492</v>
+        <v>1.000033691753845</v>
       </c>
       <c r="M8">
-        <v>0.9998868406987442</v>
+        <v>0.9999464210208832</v>
       </c>
       <c r="N8">
-        <v>0.9998868406987442</v>
+        <v>0.9999464210208832</v>
       </c>
       <c r="O8">
-        <v>0.9998689826458161</v>
+        <v>0.9999387870671063</v>
       </c>
       <c r="P8">
-        <v>0.99994943553446</v>
+        <v>0.999976930889491</v>
       </c>
       <c r="Q8">
-        <v>0.99994943553446</v>
+        <v>0.999976930889491</v>
       </c>
       <c r="R8">
-        <v>0.999980732952318</v>
+        <v>0.999992185823795</v>
       </c>
       <c r="S8">
-        <v>0.999980732952318</v>
+        <v>0.999992185823795</v>
       </c>
       <c r="T8">
-        <v>0.9999934584748821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999963807586764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000103601461373</v>
+        <v>1.00076747361736</v>
       </c>
       <c r="D9">
-        <v>0.9995826432287085</v>
+        <v>0.9983135061723573</v>
       </c>
       <c r="E9">
-        <v>1.000104749369936</v>
+        <v>1.002025032162525</v>
       </c>
       <c r="F9">
-        <v>1.000103601461373</v>
+        <v>1.000783250503247</v>
       </c>
       <c r="G9">
-        <v>1.000279553591282</v>
+        <v>0.9969242741400446</v>
       </c>
       <c r="H9">
-        <v>0.9997701895188037</v>
+        <v>1.000783250503247</v>
       </c>
       <c r="I9">
-        <v>1.000104417470246</v>
+        <v>0.9969242741400446</v>
       </c>
       <c r="J9">
-        <v>0.9995826432287085</v>
+        <v>1.000760976558196</v>
       </c>
       <c r="K9">
-        <v>1.000103601461373</v>
+        <v>1.000783250503247</v>
       </c>
       <c r="L9">
-        <v>1.000104749369936</v>
+        <v>1.000760976558196</v>
       </c>
       <c r="M9">
-        <v>0.9998436962993225</v>
+        <v>0.9988426253491201</v>
       </c>
       <c r="N9">
-        <v>0.9998436962993225</v>
+        <v>0.9988426253491201</v>
       </c>
       <c r="O9">
-        <v>0.9998191940391495</v>
+        <v>0.9986662522901991</v>
       </c>
       <c r="P9">
-        <v>0.9999303313533393</v>
+        <v>0.9994895004004957</v>
       </c>
       <c r="Q9">
-        <v>0.9999303313533393</v>
+        <v>0.9994895004004957</v>
       </c>
       <c r="R9">
-        <v>0.9999736488803477</v>
+        <v>0.9998129379261834</v>
       </c>
       <c r="S9">
-        <v>0.9999736488803477</v>
+        <v>0.9998129379261834</v>
       </c>
       <c r="T9">
-        <v>0.9999908591067249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999290855256215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000223599071854</v>
+        <v>1.014114435772813</v>
       </c>
       <c r="D10">
-        <v>0.9990959398561697</v>
+        <v>0.9689033980710602</v>
       </c>
       <c r="E10">
-        <v>1.000227357725663</v>
+        <v>1.038136279265402</v>
       </c>
       <c r="F10">
-        <v>1.000223599071854</v>
+        <v>1.013750144499314</v>
       </c>
       <c r="G10">
-        <v>1.000607004084803</v>
+        <v>0.9436770997878572</v>
       </c>
       <c r="H10">
-        <v>0.9995018985066856</v>
+        <v>1.013750144499314</v>
       </c>
       <c r="I10">
-        <v>1.000226264262134</v>
+        <v>0.9436770997878572</v>
       </c>
       <c r="J10">
-        <v>0.9990959398561697</v>
+        <v>1.014264400738145</v>
       </c>
       <c r="K10">
-        <v>1.000223599071854</v>
+        <v>1.013750144499314</v>
       </c>
       <c r="L10">
-        <v>1.000227357725663</v>
+        <v>1.014264400738145</v>
       </c>
       <c r="M10">
-        <v>0.9996616487909162</v>
+        <v>0.978970750263001</v>
       </c>
       <c r="N10">
-        <v>0.9996616487909162</v>
+        <v>0.978970750263001</v>
       </c>
       <c r="O10">
-        <v>0.9996083986961727</v>
+        <v>0.9756149661990207</v>
       </c>
       <c r="P10">
-        <v>0.9998489655512289</v>
+        <v>0.9905638816751052</v>
       </c>
       <c r="Q10">
-        <v>0.9998489655512289</v>
+        <v>0.9905638816751052</v>
       </c>
       <c r="R10">
-        <v>0.9999426239313853</v>
+        <v>0.9963604473811574</v>
       </c>
       <c r="S10">
-        <v>0.9999426239313853</v>
+        <v>0.9963604473811574</v>
       </c>
       <c r="T10">
-        <v>0.9999803439178848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9988076263557653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000371949567721</v>
+        <v>1.00404346743426</v>
       </c>
       <c r="D11">
-        <v>0.998503444416267</v>
+        <v>0.9910981792337578</v>
       </c>
       <c r="E11">
-        <v>1.000375358028095</v>
+        <v>1.010851502175593</v>
       </c>
       <c r="F11">
-        <v>1.000371949567721</v>
+        <v>1.003993015282278</v>
       </c>
       <c r="G11">
-        <v>1.001001602276631</v>
+        <v>0.9838448355238945</v>
       </c>
       <c r="H11">
-        <v>0.9991761084579239</v>
+        <v>1.003993015282278</v>
       </c>
       <c r="I11">
-        <v>1.000374365533813</v>
+        <v>0.9838448355238945</v>
       </c>
       <c r="J11">
-        <v>0.998503444416267</v>
+        <v>1.004064226572585</v>
       </c>
       <c r="K11">
-        <v>1.000371949567721</v>
+        <v>1.003993015282278</v>
       </c>
       <c r="L11">
-        <v>1.000375358028095</v>
+        <v>1.004064226572585</v>
       </c>
       <c r="M11">
-        <v>0.999439401222181</v>
+        <v>0.9939545310482395</v>
       </c>
       <c r="N11">
-        <v>0.999439401222181</v>
+        <v>0.9939545310482395</v>
       </c>
       <c r="O11">
-        <v>0.9993516369674286</v>
+        <v>0.9930024137767456</v>
       </c>
       <c r="P11">
-        <v>0.9997502506706942</v>
+        <v>0.9973006924595854</v>
       </c>
       <c r="Q11">
-        <v>0.9997502506706942</v>
+        <v>0.9973006924595854</v>
       </c>
       <c r="R11">
-        <v>0.9999056753949509</v>
+        <v>0.9989737731652585</v>
       </c>
       <c r="S11">
-        <v>0.9999056753949509</v>
+        <v>0.9989737731652585</v>
       </c>
       <c r="T11">
-        <v>0.9999671380467419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9996492043703945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9959917097856436</v>
+        <v>1.004338085747367</v>
       </c>
       <c r="D12">
-        <v>1.016350308495692</v>
+        <v>0.9904429054631586</v>
       </c>
       <c r="E12">
-        <v>0.995868369777545</v>
+        <v>1.011716047242108</v>
       </c>
       <c r="F12">
-        <v>0.9959917097856436</v>
+        <v>1.004229893978951</v>
       </c>
       <c r="G12">
-        <v>0.9889588270509722</v>
+        <v>0.9826877203473681</v>
       </c>
       <c r="H12">
-        <v>1.009021211516634</v>
+        <v>1.004229893978951</v>
       </c>
       <c r="I12">
-        <v>0.9959043335620373</v>
+        <v>0.9826877203473681</v>
       </c>
       <c r="J12">
-        <v>1.016350308495692</v>
+        <v>1.004382611578948</v>
       </c>
       <c r="K12">
-        <v>0.9959917097856436</v>
+        <v>1.004229893978951</v>
       </c>
       <c r="L12">
-        <v>0.995868369777545</v>
+        <v>1.004382611578948</v>
       </c>
       <c r="M12">
-        <v>1.006109339136618</v>
+        <v>0.9935351659631579</v>
       </c>
       <c r="N12">
-        <v>1.006109339136618</v>
+        <v>0.9935351659631579</v>
       </c>
       <c r="O12">
-        <v>1.00707996326329</v>
+        <v>0.9925044124631581</v>
       </c>
       <c r="P12">
-        <v>1.002736796019627</v>
+        <v>0.9971000753017556</v>
       </c>
       <c r="Q12">
-        <v>1.002736796019627</v>
+        <v>0.9971000753017556</v>
       </c>
       <c r="R12">
-        <v>1.001050524461131</v>
+        <v>0.9988825299710544</v>
       </c>
       <c r="S12">
-        <v>1.001050524461131</v>
+        <v>0.9988825299710544</v>
       </c>
       <c r="T12">
-        <v>1.000349126698087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9996328773929833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9988982328641662</v>
+        <v>0.997219497238867</v>
       </c>
       <c r="D13">
-        <v>1.004269613434494</v>
+        <v>1.006118176122117</v>
       </c>
       <c r="E13">
-        <v>0.9989516865231635</v>
+        <v>0.9925734872268116</v>
       </c>
       <c r="F13">
-        <v>0.9988982328641662</v>
+        <v>0.9972281552847391</v>
       </c>
       <c r="G13">
-        <v>0.9972146777811256</v>
+        <v>1.011118809462499</v>
       </c>
       <c r="H13">
-        <v>1.002335922004729</v>
+        <v>0.9972281552847391</v>
       </c>
       <c r="I13">
-        <v>0.9989361027224172</v>
+        <v>1.011118809462499</v>
       </c>
       <c r="J13">
-        <v>1.004269613434494</v>
+        <v>0.9972159291556891</v>
       </c>
       <c r="K13">
-        <v>0.9988982328641662</v>
+        <v>0.9972281552847391</v>
       </c>
       <c r="L13">
-        <v>0.9989516865231635</v>
+        <v>0.9972159291556891</v>
       </c>
       <c r="M13">
-        <v>1.001610649978829</v>
+        <v>1.004167369309094</v>
       </c>
       <c r="N13">
-        <v>1.001610649978829</v>
+        <v>1.004167369309094</v>
       </c>
       <c r="O13">
-        <v>1.001852407320796</v>
+        <v>1.004817638246768</v>
       </c>
       <c r="P13">
-        <v>1.000706510940608</v>
+        <v>1.001854297967642</v>
       </c>
       <c r="Q13">
-        <v>1.000706510940608</v>
+        <v>1.001854297967642</v>
       </c>
       <c r="R13">
-        <v>1.000254441421498</v>
+        <v>1.000697762296916</v>
       </c>
       <c r="S13">
-        <v>1.000254441421498</v>
+        <v>1.000697762296916</v>
       </c>
       <c r="T13">
-        <v>1.000101039221683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000245675748454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9900228960430021</v>
+        <v>1.0243846</v>
       </c>
       <c r="D14">
-        <v>1.039867892566058</v>
+        <v>0.9462746299999995</v>
       </c>
       <c r="E14">
-        <v>0.9900386538886654</v>
+        <v>1.065905200000002</v>
       </c>
       <c r="F14">
-        <v>0.9900228960430021</v>
+        <v>1.023740900000001</v>
       </c>
       <c r="G14">
-        <v>0.9734394138906073</v>
+        <v>0.9026998499999992</v>
       </c>
       <c r="H14">
-        <v>1.021923694672814</v>
+        <v>1.023740900000001</v>
       </c>
       <c r="I14">
-        <v>0.9900340611122644</v>
+        <v>0.9026998499999992</v>
       </c>
       <c r="J14">
-        <v>1.039867892566058</v>
+        <v>1.024649600000002</v>
       </c>
       <c r="K14">
-        <v>0.9900228960430021</v>
+        <v>1.023740900000001</v>
       </c>
       <c r="L14">
-        <v>0.9900386538886654</v>
+        <v>1.024649600000002</v>
       </c>
       <c r="M14">
-        <v>1.014953273227362</v>
+        <v>0.9636747250000006</v>
       </c>
       <c r="N14">
-        <v>1.014953273227362</v>
+        <v>0.9636747250000006</v>
       </c>
       <c r="O14">
-        <v>1.017276747042512</v>
+        <v>0.9578746933333336</v>
       </c>
       <c r="P14">
-        <v>1.006643147499242</v>
+        <v>0.983696783333334</v>
       </c>
       <c r="Q14">
-        <v>1.006643147499242</v>
+        <v>0.983696783333334</v>
       </c>
       <c r="R14">
-        <v>1.002488084635182</v>
+        <v>0.9937078125000007</v>
       </c>
       <c r="S14">
-        <v>1.002488084635182</v>
+        <v>0.9937078125000007</v>
       </c>
       <c r="T14">
-        <v>1.000887768695568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9979424633333339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9973603906853733</v>
+        <v>1.0117535</v>
       </c>
       <c r="D15">
-        <v>1.010564612316284</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="E15">
-        <v>0.9973579900166274</v>
+        <v>1.0301398</v>
       </c>
       <c r="F15">
-        <v>0.9973603906853733</v>
+        <v>1.012634</v>
       </c>
       <c r="G15">
-        <v>0.992954184241805</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H15">
-        <v>1.005811087511842</v>
+        <v>1.012634</v>
       </c>
       <c r="I15">
-        <v>0.9973586951029331</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="J15">
-        <v>1.010564612316284</v>
+        <v>1.0113912</v>
       </c>
       <c r="K15">
-        <v>0.9973603906853733</v>
+        <v>1.012634</v>
       </c>
       <c r="L15">
-        <v>0.9973579900166274</v>
+        <v>1.0113912</v>
       </c>
       <c r="M15">
-        <v>1.003961301166456</v>
+        <v>0.9820255</v>
       </c>
       <c r="N15">
-        <v>1.003961301166456</v>
+        <v>0.9820255</v>
       </c>
       <c r="O15">
-        <v>1.004577896614918</v>
+        <v>0.97943384</v>
       </c>
       <c r="P15">
-        <v>1.001760997672761</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q15">
-        <v>1.001760997672761</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R15">
-        <v>1.000660845925915</v>
+        <v>0.99732975</v>
       </c>
       <c r="S15">
-        <v>1.000660845925915</v>
+        <v>0.99732975</v>
       </c>
       <c r="T15">
-        <v>1.000234493312478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9988048033333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999986275797799</v>
+        <v>1.0278123</v>
       </c>
       <c r="D16">
-        <v>0.9999952974892248</v>
+        <v>0.93871594</v>
       </c>
       <c r="E16">
-        <v>1.000002591543055</v>
+        <v>1.0752445</v>
       </c>
       <c r="F16">
-        <v>0.9999986275797799</v>
+        <v>1.0270229</v>
       </c>
       <c r="G16">
-        <v>1.000007668156978</v>
+        <v>0.88904326</v>
       </c>
       <c r="H16">
-        <v>0.9999964975108259</v>
+        <v>1.0270229</v>
       </c>
       <c r="I16">
-        <v>1.00000143923559</v>
+        <v>0.88904326</v>
       </c>
       <c r="J16">
-        <v>0.9999952974892248</v>
+        <v>1.0281371</v>
       </c>
       <c r="K16">
-        <v>0.9999986275797799</v>
+        <v>1.0270229</v>
       </c>
       <c r="L16">
-        <v>1.000002591543055</v>
+        <v>1.0281371</v>
       </c>
       <c r="M16">
-        <v>0.9999989445161399</v>
+        <v>0.95859018</v>
       </c>
       <c r="N16">
-        <v>0.9999989445161399</v>
+        <v>0.95859018</v>
       </c>
       <c r="O16">
-        <v>0.9999981288477019</v>
+        <v>0.9519654333333333</v>
       </c>
       <c r="P16">
-        <v>0.9999988388706865</v>
+        <v>0.9814010866666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999988388706865</v>
+        <v>0.9814010866666667</v>
       </c>
       <c r="R16">
-        <v>0.9999987860479599</v>
+        <v>0.99280654</v>
       </c>
       <c r="S16">
-        <v>0.9999987860479599</v>
+        <v>0.99280654</v>
       </c>
       <c r="T16">
-        <v>1.000000353585909</v>
+        <v>0.9976626666666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000037950626707</v>
+        <v>0.9943626299999999</v>
       </c>
       <c r="D17">
-        <v>0.9998591502879216</v>
+        <v>1.0124069</v>
       </c>
       <c r="E17">
-        <v>1.000033691753844</v>
+        <v>0.9849151399999999</v>
       </c>
       <c r="F17">
-        <v>1.000037950626707</v>
+        <v>0.9944006000000001</v>
       </c>
       <c r="G17">
-        <v>1.000089036123364</v>
+        <v>1.0225354</v>
       </c>
       <c r="H17">
-        <v>0.9999235191595528</v>
+        <v>0.9944006000000001</v>
       </c>
       <c r="I17">
-        <v>1.000034936600669</v>
+        <v>1.0225354</v>
       </c>
       <c r="J17">
-        <v>0.9998591502879216</v>
+        <v>0.99434701</v>
       </c>
       <c r="K17">
-        <v>1.000037950626707</v>
+        <v>0.9944006000000001</v>
       </c>
       <c r="L17">
-        <v>1.000033691753844</v>
+        <v>0.99434701</v>
       </c>
       <c r="M17">
-        <v>0.9999464210208828</v>
+        <v>1.008441205</v>
       </c>
       <c r="N17">
-        <v>0.9999464210208828</v>
+        <v>1.008441205</v>
       </c>
       <c r="O17">
-        <v>0.9999387870671063</v>
+        <v>1.009763103333333</v>
       </c>
       <c r="P17">
-        <v>0.9999769308894909</v>
+        <v>1.003761003333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999769308894909</v>
+        <v>1.003761003333334</v>
       </c>
       <c r="R17">
-        <v>0.9999921858237949</v>
+        <v>1.0014209025</v>
       </c>
       <c r="S17">
-        <v>0.9999921858237949</v>
+        <v>1.0014209025</v>
       </c>
       <c r="T17">
-        <v>0.9999963807586764</v>
+        <v>1.000494613333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000117267279963</v>
+        <v>1.009211579452055</v>
       </c>
       <c r="D18">
-        <v>0.9995141667865917</v>
+        <v>0.9797603939726024</v>
       </c>
       <c r="E18">
-        <v>1.000123785289666</v>
+        <v>1.024276655890411</v>
       </c>
       <c r="F18">
-        <v>1.000117267279963</v>
+        <v>1.009422069041096</v>
       </c>
       <c r="G18">
-        <v>1.000331343758211</v>
+        <v>0.9630757112328771</v>
       </c>
       <c r="H18">
-        <v>0.9997312807263303</v>
+        <v>1.009422069041096</v>
       </c>
       <c r="I18">
-        <v>1.000121891951705</v>
+        <v>0.9630757112328771</v>
       </c>
       <c r="J18">
-        <v>0.9995141667865917</v>
+        <v>1.009124968219178</v>
       </c>
       <c r="K18">
-        <v>1.000117267279963</v>
+        <v>1.009422069041096</v>
       </c>
       <c r="L18">
-        <v>1.000123785289666</v>
+        <v>1.009124968219178</v>
       </c>
       <c r="M18">
-        <v>0.999818976038129</v>
+        <v>0.9861003397260277</v>
       </c>
       <c r="N18">
-        <v>0.999818976038129</v>
+        <v>0.9861003397260277</v>
       </c>
       <c r="O18">
-        <v>0.9997897442675295</v>
+        <v>0.983987024474886</v>
       </c>
       <c r="P18">
-        <v>0.9999184064520735</v>
+        <v>0.9938742494977171</v>
       </c>
       <c r="Q18">
-        <v>0.9999184064520735</v>
+        <v>0.993874249497717</v>
       </c>
       <c r="R18">
-        <v>0.9999681216590458</v>
+        <v>0.9977612043835616</v>
       </c>
       <c r="S18">
-        <v>0.9999681216590458</v>
+        <v>0.9977612043835616</v>
       </c>
       <c r="T18">
-        <v>0.9999899559654111</v>
+        <v>0.9991452296347031</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000266019074493</v>
+        <v>1.005507684736842</v>
       </c>
       <c r="D19">
-        <v>0.9988671932076201</v>
+        <v>0.9878464089473684</v>
       </c>
       <c r="E19">
-        <v>1.000292749067281</v>
+        <v>1.015094814736842</v>
       </c>
       <c r="F19">
-        <v>1.000266019074493</v>
+        <v>1.005209298947369</v>
       </c>
       <c r="G19">
-        <v>1.000785756921173</v>
+        <v>0.9780797847368422</v>
       </c>
       <c r="H19">
-        <v>0.9993707701069157</v>
+        <v>1.005209298947369</v>
       </c>
       <c r="I19">
-        <v>1.000284961310603</v>
+        <v>0.9780797847368422</v>
       </c>
       <c r="J19">
-        <v>0.9988671932076201</v>
+        <v>1.005630478947368</v>
       </c>
       <c r="K19">
-        <v>1.000266019074493</v>
+        <v>1.005209298947369</v>
       </c>
       <c r="L19">
-        <v>1.000292749067281</v>
+        <v>1.005630478947368</v>
       </c>
       <c r="M19">
-        <v>0.9995799711374505</v>
+        <v>0.9918551318421054</v>
       </c>
       <c r="N19">
-        <v>0.9995799711374505</v>
+        <v>0.9918551318421054</v>
       </c>
       <c r="O19">
-        <v>0.9995102374606054</v>
+        <v>0.9905188908771931</v>
       </c>
       <c r="P19">
-        <v>0.9998086537831311</v>
+        <v>0.9963065208771932</v>
       </c>
       <c r="Q19">
-        <v>0.9998086537831311</v>
+        <v>0.9963065208771931</v>
       </c>
       <c r="R19">
-        <v>0.9999229951059715</v>
+        <v>0.9985322153947369</v>
       </c>
       <c r="S19">
-        <v>0.9999229951059715</v>
+        <v>0.9985322153947369</v>
       </c>
       <c r="T19">
-        <v>0.9999779082813475</v>
+        <v>0.9995614118421052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.0108689</v>
+      </c>
+      <c r="D20">
+        <v>0.9761179257894738</v>
+      </c>
+      <c r="E20">
+        <v>1.028655931578947</v>
+      </c>
+      <c r="F20">
+        <v>1.011108810526316</v>
+      </c>
+      <c r="G20">
+        <v>0.956435546842105</v>
+      </c>
+      <c r="H20">
+        <v>1.011108810526316</v>
+      </c>
+      <c r="I20">
+        <v>0.956435546842105</v>
+      </c>
+      <c r="J20">
+        <v>1.010770168421053</v>
+      </c>
+      <c r="K20">
+        <v>1.011108810526316</v>
+      </c>
+      <c r="L20">
+        <v>1.010770168421053</v>
+      </c>
+      <c r="M20">
+        <v>0.983602857631579</v>
+      </c>
+      <c r="N20">
+        <v>0.983602857631579</v>
+      </c>
+      <c r="O20">
+        <v>0.9811078803508773</v>
+      </c>
+      <c r="P20">
+        <v>0.9927715085964913</v>
+      </c>
+      <c r="Q20">
+        <v>0.9927715085964911</v>
+      </c>
+      <c r="R20">
+        <v>0.9973558340789473</v>
+      </c>
+      <c r="S20">
+        <v>0.9973558340789473</v>
+      </c>
+      <c r="T20">
+        <v>0.9989928805263159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9900340611122644</v>
+      </c>
+      <c r="D21">
+        <v>1.021923694672814</v>
+      </c>
+      <c r="E21">
+        <v>0.9734394138906071</v>
+      </c>
+      <c r="F21">
+        <v>0.9900228960430021</v>
+      </c>
+      <c r="G21">
+        <v>1.039867892566058</v>
+      </c>
+      <c r="H21">
+        <v>0.9900228960430021</v>
+      </c>
+      <c r="I21">
+        <v>1.039867892566058</v>
+      </c>
+      <c r="J21">
+        <v>0.9900386538886654</v>
+      </c>
+      <c r="K21">
+        <v>0.9900228960430021</v>
+      </c>
+      <c r="L21">
+        <v>0.9900386538886654</v>
+      </c>
+      <c r="M21">
+        <v>1.014953273227362</v>
+      </c>
+      <c r="N21">
+        <v>1.014953273227362</v>
+      </c>
+      <c r="O21">
+        <v>1.017276747042512</v>
+      </c>
+      <c r="P21">
+        <v>1.006643147499242</v>
+      </c>
+      <c r="Q21">
+        <v>1.006643147499242</v>
+      </c>
+      <c r="R21">
+        <v>1.002488084635182</v>
+      </c>
+      <c r="S21">
+        <v>1.002488084635182</v>
+      </c>
+      <c r="T21">
+        <v>1.000887768695568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9973586951029331</v>
+      </c>
+      <c r="D22">
+        <v>1.005811087511842</v>
+      </c>
+      <c r="E22">
+        <v>0.992954184241805</v>
+      </c>
+      <c r="F22">
+        <v>0.9973603906853733</v>
+      </c>
+      <c r="G22">
+        <v>1.010564612316284</v>
+      </c>
+      <c r="H22">
+        <v>0.9973603906853733</v>
+      </c>
+      <c r="I22">
+        <v>1.010564612316284</v>
+      </c>
+      <c r="J22">
+        <v>0.9973579900166274</v>
+      </c>
+      <c r="K22">
+        <v>0.9973603906853733</v>
+      </c>
+      <c r="L22">
+        <v>0.9973579900166274</v>
+      </c>
+      <c r="M22">
+        <v>1.003961301166456</v>
+      </c>
+      <c r="N22">
+        <v>1.003961301166456</v>
+      </c>
+      <c r="O22">
+        <v>1.004577896614918</v>
+      </c>
+      <c r="P22">
+        <v>1.001760997672761</v>
+      </c>
+      <c r="Q22">
+        <v>1.001760997672761</v>
+      </c>
+      <c r="R22">
+        <v>1.000660845925915</v>
+      </c>
+      <c r="S22">
+        <v>1.000660845925915</v>
+      </c>
+      <c r="T22">
+        <v>1.000234493312478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9959043335620371</v>
+      </c>
+      <c r="D23">
+        <v>1.009021211516634</v>
+      </c>
+      <c r="E23">
+        <v>0.9889588270509722</v>
+      </c>
+      <c r="F23">
+        <v>0.9959917097856436</v>
+      </c>
+      <c r="G23">
+        <v>1.016350308495692</v>
+      </c>
+      <c r="H23">
+        <v>0.9959917097856436</v>
+      </c>
+      <c r="I23">
+        <v>1.016350308495692</v>
+      </c>
+      <c r="J23">
+        <v>0.995868369777545</v>
+      </c>
+      <c r="K23">
+        <v>0.9959917097856436</v>
+      </c>
+      <c r="L23">
+        <v>0.995868369777545</v>
+      </c>
+      <c r="M23">
+        <v>1.006109339136618</v>
+      </c>
+      <c r="N23">
+        <v>1.006109339136618</v>
+      </c>
+      <c r="O23">
+        <v>1.00707996326329</v>
+      </c>
+      <c r="P23">
+        <v>1.002736796019627</v>
+      </c>
+      <c r="Q23">
+        <v>1.002736796019627</v>
+      </c>
+      <c r="R23">
+        <v>1.001050524461131</v>
+      </c>
+      <c r="S23">
+        <v>1.001050524461131</v>
+      </c>
+      <c r="T23">
+        <v>1.000349126698087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9989361027224172</v>
+      </c>
+      <c r="D24">
+        <v>1.002335922004729</v>
+      </c>
+      <c r="E24">
+        <v>0.9972146777811256</v>
+      </c>
+      <c r="F24">
+        <v>0.9988982328641662</v>
+      </c>
+      <c r="G24">
+        <v>1.004269613434494</v>
+      </c>
+      <c r="H24">
+        <v>0.9988982328641662</v>
+      </c>
+      <c r="I24">
+        <v>1.004269613434494</v>
+      </c>
+      <c r="J24">
+        <v>0.9989516865231632</v>
+      </c>
+      <c r="K24">
+        <v>0.9988982328641662</v>
+      </c>
+      <c r="L24">
+        <v>0.9989516865231632</v>
+      </c>
+      <c r="M24">
+        <v>1.001610649978829</v>
+      </c>
+      <c r="N24">
+        <v>1.001610649978829</v>
+      </c>
+      <c r="O24">
+        <v>1.001852407320796</v>
+      </c>
+      <c r="P24">
+        <v>1.000706510940608</v>
+      </c>
+      <c r="Q24">
+        <v>1.000706510940608</v>
+      </c>
+      <c r="R24">
+        <v>1.000254441421498</v>
+      </c>
+      <c r="S24">
+        <v>1.000254441421498</v>
+      </c>
+      <c r="T24">
+        <v>1.000101039221683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.005393655032135</v>
+      </c>
+      <c r="D25">
+        <v>0.9881868926266736</v>
+      </c>
+      <c r="E25">
+        <v>1.01379506738653</v>
+      </c>
+      <c r="F25">
+        <v>1.005824020642823</v>
+      </c>
+      <c r="G25">
+        <v>0.9782660093582712</v>
+      </c>
+      <c r="H25">
+        <v>1.005824020642823</v>
+      </c>
+      <c r="I25">
+        <v>0.9782660093582712</v>
+      </c>
+      <c r="J25">
+        <v>1.005216548012237</v>
+      </c>
+      <c r="K25">
+        <v>1.005824020642823</v>
+      </c>
+      <c r="L25">
+        <v>1.005216548012237</v>
+      </c>
+      <c r="M25">
+        <v>0.9917412786852542</v>
+      </c>
+      <c r="N25">
+        <v>0.9917412786852542</v>
+      </c>
+      <c r="O25">
+        <v>0.990556483332394</v>
+      </c>
+      <c r="P25">
+        <v>0.9964355260044439</v>
+      </c>
+      <c r="Q25">
+        <v>0.9964355260044439</v>
+      </c>
+      <c r="R25">
+        <v>0.9987826496640386</v>
+      </c>
+      <c r="S25">
+        <v>0.9987826496640386</v>
+      </c>
+      <c r="T25">
+        <v>0.9994470321764449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.001444230295405</v>
+      </c>
+      <c r="D26">
+        <v>0.9968006048464185</v>
+      </c>
+      <c r="E26">
+        <v>1.004096658377053</v>
+      </c>
+      <c r="F26">
+        <v>1.00126463293162</v>
+      </c>
+      <c r="G26">
+        <v>0.9942895894883611</v>
+      </c>
+      <c r="H26">
+        <v>1.00126463293162</v>
+      </c>
+      <c r="I26">
+        <v>0.9942895894883611</v>
+      </c>
+      <c r="J26">
+        <v>1.001518137567549</v>
+      </c>
+      <c r="K26">
+        <v>1.00126463293162</v>
+      </c>
+      <c r="L26">
+        <v>1.001518137567549</v>
+      </c>
+      <c r="M26">
+        <v>0.9979038635279551</v>
+      </c>
+      <c r="N26">
+        <v>0.9979038635279551</v>
+      </c>
+      <c r="O26">
+        <v>0.9975361106341096</v>
+      </c>
+      <c r="P26">
+        <v>0.9990241199958433</v>
+      </c>
+      <c r="Q26">
+        <v>0.9990241199958434</v>
+      </c>
+      <c r="R26">
+        <v>0.9995842482297874</v>
+      </c>
+      <c r="S26">
+        <v>0.9995842482297874</v>
+      </c>
+      <c r="T26">
+        <v>0.9999023089177342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.001457167344898</v>
+      </c>
+      <c r="D27">
+        <v>0.9967960215159618</v>
+      </c>
+      <c r="E27">
+        <v>1.003865727910247</v>
+      </c>
+      <c r="F27">
+        <v>1.001471833349316</v>
+      </c>
+      <c r="G27">
+        <v>0.9941658938391162</v>
+      </c>
+      <c r="H27">
+        <v>1.001471833349316</v>
+      </c>
+      <c r="I27">
+        <v>0.9941658938391162</v>
+      </c>
+      <c r="J27">
+        <v>1.001451137142136</v>
+      </c>
+      <c r="K27">
+        <v>1.001471833349316</v>
+      </c>
+      <c r="L27">
+        <v>1.001451137142136</v>
+      </c>
+      <c r="M27">
+        <v>0.9978085154906261</v>
+      </c>
+      <c r="N27">
+        <v>0.9978085154906261</v>
+      </c>
+      <c r="O27">
+        <v>0.9974710174990714</v>
+      </c>
+      <c r="P27">
+        <v>0.9990296214435229</v>
+      </c>
+      <c r="Q27">
+        <v>0.9990296214435229</v>
+      </c>
+      <c r="R27">
+        <v>0.9996401744199712</v>
+      </c>
+      <c r="S27">
+        <v>0.9996401744199712</v>
+      </c>
+      <c r="T27">
+        <v>0.9998679635169457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.00063352294072</v>
+      </c>
+      <c r="D28">
+        <v>0.9986113883555927</v>
+      </c>
+      <c r="E28">
+        <v>1.001632362719036</v>
+      </c>
+      <c r="F28">
+        <v>1.000675257186689</v>
+      </c>
+      <c r="G28">
+        <v>0.9974504659425535</v>
+      </c>
+      <c r="H28">
+        <v>1.000675257186689</v>
+      </c>
+      <c r="I28">
+        <v>0.9974504659425535</v>
+      </c>
+      <c r="J28">
+        <v>1.000616343326814</v>
+      </c>
+      <c r="K28">
+        <v>1.000675257186689</v>
+      </c>
+      <c r="L28">
+        <v>1.000616343326814</v>
+      </c>
+      <c r="M28">
+        <v>0.9990334046346836</v>
+      </c>
+      <c r="N28">
+        <v>0.9990334046346836</v>
+      </c>
+      <c r="O28">
+        <v>0.9988927325416533</v>
+      </c>
+      <c r="P28">
+        <v>0.9995806888186854</v>
+      </c>
+      <c r="Q28">
+        <v>0.9995806888186854</v>
+      </c>
+      <c r="R28">
+        <v>0.9998543309106863</v>
+      </c>
+      <c r="S28">
+        <v>0.9998543309106863</v>
+      </c>
+      <c r="T28">
+        <v>0.9999365567452342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9961146942500919</v>
+      </c>
+      <c r="D29">
+        <v>1.008560755404232</v>
+      </c>
+      <c r="E29">
+        <v>0.9894940723174048</v>
+      </c>
+      <c r="F29">
+        <v>0.9962208726866625</v>
+      </c>
+      <c r="G29">
+        <v>1.01550193790399</v>
+      </c>
+      <c r="H29">
+        <v>0.9962208726866625</v>
+      </c>
+      <c r="I29">
+        <v>1.01550193790399</v>
+      </c>
+      <c r="J29">
+        <v>0.9960709824758134</v>
+      </c>
+      <c r="K29">
+        <v>0.9962208726866625</v>
+      </c>
+      <c r="L29">
+        <v>0.9960709824758134</v>
+      </c>
+      <c r="M29">
+        <v>1.005786460189902</v>
+      </c>
+      <c r="N29">
+        <v>1.005786460189902</v>
+      </c>
+      <c r="O29">
+        <v>1.006711225261345</v>
+      </c>
+      <c r="P29">
+        <v>1.002597931022155</v>
+      </c>
+      <c r="Q29">
+        <v>1.002597931022155</v>
+      </c>
+      <c r="R29">
+        <v>1.001003666438282</v>
+      </c>
+      <c r="S29">
+        <v>1.001003666438282</v>
+      </c>
+      <c r="T29">
+        <v>1.000327219173032</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00379008194341</v>
+        <v>1.003475753572057</v>
       </c>
       <c r="D4">
-        <v>0.9916524552513361</v>
+        <v>0.9923451492001074</v>
       </c>
       <c r="E4">
-        <v>1.010211054926376</v>
+        <v>1.009359757803647</v>
       </c>
       <c r="F4">
-        <v>1.003713829683104</v>
+        <v>1.003409083457902</v>
       </c>
       <c r="G4">
-        <v>0.9848679334317603</v>
+        <v>0.9861216837411322</v>
       </c>
       <c r="H4">
-        <v>1.003713829683104</v>
+        <v>1.003409083457902</v>
       </c>
       <c r="I4">
-        <v>0.9848679334317603</v>
+        <v>0.9861216837411322</v>
       </c>
       <c r="J4">
-        <v>1.00382145762746</v>
+        <v>1.003503187698523</v>
       </c>
       <c r="K4">
-        <v>1.003713829683104</v>
+        <v>1.003409083457902</v>
       </c>
       <c r="L4">
-        <v>1.00382145762746</v>
+        <v>1.003503187698523</v>
       </c>
       <c r="M4">
-        <v>0.9943446955296099</v>
+        <v>0.9948124357198278</v>
       </c>
       <c r="N4">
-        <v>0.9943446955296099</v>
+        <v>0.9948124357198278</v>
       </c>
       <c r="O4">
-        <v>0.9934472821035186</v>
+        <v>0.9939900068799211</v>
       </c>
       <c r="P4">
-        <v>0.9974677402474411</v>
+        <v>0.9976779849658527</v>
       </c>
       <c r="Q4">
-        <v>0.9974677402474411</v>
+        <v>0.9976779849658527</v>
       </c>
       <c r="R4">
-        <v>0.9990292626063568</v>
+        <v>0.9991107595888651</v>
       </c>
       <c r="S4">
-        <v>0.9990292626063568</v>
+        <v>0.9991107595888651</v>
       </c>
       <c r="T4">
-        <v>0.999676135477241</v>
+        <v>0.9997024359122283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004240478069163</v>
+        <v>1.00976939879552</v>
       </c>
       <c r="D5">
-        <v>0.9906626675936638</v>
+        <v>0.9785433122313412</v>
       </c>
       <c r="E5">
-        <v>1.011399966498563</v>
+        <v>1.025651931733282</v>
       </c>
       <c r="F5">
-        <v>1.004173121023058</v>
+        <v>1.010061999898754</v>
       </c>
       <c r="G5">
-        <v>0.9830630353890515</v>
+        <v>0.9608140442956197</v>
       </c>
       <c r="H5">
-        <v>1.004173121023058</v>
+        <v>1.010061999898754</v>
       </c>
       <c r="I5">
-        <v>0.9830630353890515</v>
+        <v>0.9608140442956197</v>
       </c>
       <c r="J5">
-        <v>1.004268197867439</v>
+        <v>1.009648977622966</v>
       </c>
       <c r="K5">
-        <v>1.004173121023058</v>
+        <v>1.010061999898754</v>
       </c>
       <c r="L5">
-        <v>1.004268197867439</v>
+        <v>1.009648977622966</v>
       </c>
       <c r="M5">
-        <v>0.9936656166282452</v>
+        <v>0.9852315109592926</v>
       </c>
       <c r="N5">
-        <v>0.9936656166282452</v>
+        <v>0.9852315109592926</v>
       </c>
       <c r="O5">
-        <v>0.9926646336167181</v>
+        <v>0.9830021113833087</v>
       </c>
       <c r="P5">
-        <v>0.997168118093183</v>
+        <v>0.9935083406057797</v>
       </c>
       <c r="Q5">
-        <v>0.997168118093183</v>
+        <v>0.9935083406057797</v>
       </c>
       <c r="R5">
-        <v>0.9989193688256517</v>
+        <v>0.9976467554290233</v>
       </c>
       <c r="S5">
-        <v>0.9989193688256517</v>
+        <v>0.9976467554290233</v>
       </c>
       <c r="T5">
-        <v>0.9996345777401565</v>
+        <v>0.9990816107629138</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.013907975508295</v>
+        <v>1.00379008194341</v>
       </c>
       <c r="D6">
-        <v>0.9693589669787827</v>
+        <v>0.9916524552513361</v>
       </c>
       <c r="E6">
-        <v>1.037570665524251</v>
+        <v>1.010211054926376</v>
       </c>
       <c r="F6">
-        <v>1.01355470115431</v>
+        <v>1.003713829683104</v>
       </c>
       <c r="G6">
-        <v>0.9444988639028941</v>
+        <v>0.9848679334317603</v>
       </c>
       <c r="H6">
-        <v>1.01355470115431</v>
+        <v>1.003713829683104</v>
       </c>
       <c r="I6">
-        <v>0.9444988639028941</v>
+        <v>0.9848679334317603</v>
       </c>
       <c r="J6">
-        <v>1.014053406418844</v>
+        <v>1.00382145762746</v>
       </c>
       <c r="K6">
-        <v>1.01355470115431</v>
+        <v>1.003713829683104</v>
       </c>
       <c r="L6">
-        <v>1.014053406418844</v>
+        <v>1.00382145762746</v>
       </c>
       <c r="M6">
-        <v>0.979276135160869</v>
+        <v>0.9943446955296099</v>
       </c>
       <c r="N6">
-        <v>0.979276135160869</v>
+        <v>0.9943446955296099</v>
       </c>
       <c r="O6">
-        <v>0.9759704124335068</v>
+        <v>0.9934472821035186</v>
       </c>
       <c r="P6">
-        <v>0.9907023238253491</v>
+        <v>0.9974677402474411</v>
       </c>
       <c r="Q6">
-        <v>0.9907023238253491</v>
+        <v>0.9974677402474411</v>
       </c>
       <c r="R6">
-        <v>0.9964154181575893</v>
+        <v>0.9990292626063568</v>
       </c>
       <c r="S6">
-        <v>0.9964154181575893</v>
+        <v>0.9990292626063568</v>
       </c>
       <c r="T6">
-        <v>0.9988240965812292</v>
+        <v>0.999676135477241</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000463423389552</v>
+        <v>1.004240478069163</v>
       </c>
       <c r="D7">
-        <v>0.9989817482244489</v>
+        <v>0.9906626675936638</v>
       </c>
       <c r="E7">
-        <v>1.001221661396084</v>
+        <v>1.011399966498563</v>
       </c>
       <c r="F7">
-        <v>1.000473761927756</v>
+        <v>1.004173121023058</v>
       </c>
       <c r="G7">
-        <v>0.9981424892817752</v>
+        <v>0.9830630353890515</v>
       </c>
       <c r="H7">
-        <v>1.000473761927756</v>
+        <v>1.004173121023058</v>
       </c>
       <c r="I7">
-        <v>0.9981424892817752</v>
+        <v>0.9830630353890515</v>
       </c>
       <c r="J7">
-        <v>1.000459165124189</v>
+        <v>1.004268197867439</v>
       </c>
       <c r="K7">
-        <v>1.000473761927756</v>
+        <v>1.004173121023058</v>
       </c>
       <c r="L7">
-        <v>1.000459165124189</v>
+        <v>1.004268197867439</v>
       </c>
       <c r="M7">
-        <v>0.9993008272029821</v>
+        <v>0.9936656166282452</v>
       </c>
       <c r="N7">
-        <v>0.9993008272029821</v>
+        <v>0.9936656166282452</v>
       </c>
       <c r="O7">
-        <v>0.9991944675434711</v>
+        <v>0.9926646336167181</v>
       </c>
       <c r="P7">
-        <v>0.9996918054445733</v>
+        <v>0.997168118093183</v>
       </c>
       <c r="Q7">
-        <v>0.9996918054445733</v>
+        <v>0.997168118093183</v>
       </c>
       <c r="R7">
-        <v>0.999887294565369</v>
+        <v>0.9989193688256517</v>
       </c>
       <c r="S7">
-        <v>0.999887294565369</v>
+        <v>0.9989193688256517</v>
       </c>
       <c r="T7">
-        <v>0.9999570415573008</v>
+        <v>0.9996345777401565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000034936600669</v>
+        <v>1.013907975508295</v>
       </c>
       <c r="D8">
-        <v>0.9999235191595526</v>
+        <v>0.9693589669787827</v>
       </c>
       <c r="E8">
-        <v>1.000089036123364</v>
+        <v>1.037570665524251</v>
       </c>
       <c r="F8">
-        <v>1.000037950626707</v>
+        <v>1.01355470115431</v>
       </c>
       <c r="G8">
-        <v>0.9998591502879215</v>
+        <v>0.9444988639028941</v>
       </c>
       <c r="H8">
-        <v>1.000037950626707</v>
+        <v>1.01355470115431</v>
       </c>
       <c r="I8">
-        <v>0.9998591502879215</v>
+        <v>0.9444988639028941</v>
       </c>
       <c r="J8">
-        <v>1.000033691753845</v>
+        <v>1.014053406418844</v>
       </c>
       <c r="K8">
-        <v>1.000037950626707</v>
+        <v>1.01355470115431</v>
       </c>
       <c r="L8">
-        <v>1.000033691753845</v>
+        <v>1.014053406418844</v>
       </c>
       <c r="M8">
-        <v>0.9999464210208832</v>
+        <v>0.979276135160869</v>
       </c>
       <c r="N8">
-        <v>0.9999464210208832</v>
+        <v>0.979276135160869</v>
       </c>
       <c r="O8">
-        <v>0.9999387870671063</v>
+        <v>0.9759704124335068</v>
       </c>
       <c r="P8">
-        <v>0.999976930889491</v>
+        <v>0.9907023238253491</v>
       </c>
       <c r="Q8">
-        <v>0.999976930889491</v>
+        <v>0.9907023238253491</v>
       </c>
       <c r="R8">
-        <v>0.999992185823795</v>
+        <v>0.9964154181575893</v>
       </c>
       <c r="S8">
-        <v>0.999992185823795</v>
+        <v>0.9964154181575893</v>
       </c>
       <c r="T8">
-        <v>0.9999963807586764</v>
+        <v>0.9988240965812292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00076747361736</v>
+        <v>1.000463423389552</v>
       </c>
       <c r="D9">
-        <v>0.9983135061723573</v>
+        <v>0.9989817482244489</v>
       </c>
       <c r="E9">
-        <v>1.002025032162525</v>
+        <v>1.001221661396084</v>
       </c>
       <c r="F9">
-        <v>1.000783250503247</v>
+        <v>1.000473761927756</v>
       </c>
       <c r="G9">
-        <v>0.9969242741400446</v>
+        <v>0.9981424892817752</v>
       </c>
       <c r="H9">
-        <v>1.000783250503247</v>
+        <v>1.000473761927756</v>
       </c>
       <c r="I9">
-        <v>0.9969242741400446</v>
+        <v>0.9981424892817752</v>
       </c>
       <c r="J9">
-        <v>1.000760976558196</v>
+        <v>1.000459165124189</v>
       </c>
       <c r="K9">
-        <v>1.000783250503247</v>
+        <v>1.000473761927756</v>
       </c>
       <c r="L9">
-        <v>1.000760976558196</v>
+        <v>1.000459165124189</v>
       </c>
       <c r="M9">
-        <v>0.9988426253491201</v>
+        <v>0.9993008272029821</v>
       </c>
       <c r="N9">
-        <v>0.9988426253491201</v>
+        <v>0.9993008272029821</v>
       </c>
       <c r="O9">
-        <v>0.9986662522901991</v>
+        <v>0.9991944675434711</v>
       </c>
       <c r="P9">
-        <v>0.9994895004004957</v>
+        <v>0.9996918054445733</v>
       </c>
       <c r="Q9">
-        <v>0.9994895004004957</v>
+        <v>0.9996918054445733</v>
       </c>
       <c r="R9">
-        <v>0.9998129379261834</v>
+        <v>0.999887294565369</v>
       </c>
       <c r="S9">
-        <v>0.9998129379261834</v>
+        <v>0.999887294565369</v>
       </c>
       <c r="T9">
-        <v>0.9999290855256215</v>
+        <v>0.9999570415573008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.014114435772813</v>
+        <v>1.000034936600669</v>
       </c>
       <c r="D10">
-        <v>0.9689033980710602</v>
+        <v>0.9999235191595526</v>
       </c>
       <c r="E10">
-        <v>1.038136279265402</v>
+        <v>1.000089036123364</v>
       </c>
       <c r="F10">
-        <v>1.013750144499314</v>
+        <v>1.000037950626707</v>
       </c>
       <c r="G10">
-        <v>0.9436770997878572</v>
+        <v>0.9998591502879215</v>
       </c>
       <c r="H10">
-        <v>1.013750144499314</v>
+        <v>1.000037950626707</v>
       </c>
       <c r="I10">
-        <v>0.9436770997878572</v>
+        <v>0.9998591502879215</v>
       </c>
       <c r="J10">
-        <v>1.014264400738145</v>
+        <v>1.000033691753845</v>
       </c>
       <c r="K10">
-        <v>1.013750144499314</v>
+        <v>1.000037950626707</v>
       </c>
       <c r="L10">
-        <v>1.014264400738145</v>
+        <v>1.000033691753845</v>
       </c>
       <c r="M10">
-        <v>0.978970750263001</v>
+        <v>0.9999464210208832</v>
       </c>
       <c r="N10">
-        <v>0.978970750263001</v>
+        <v>0.9999464210208832</v>
       </c>
       <c r="O10">
-        <v>0.9756149661990207</v>
+        <v>0.9999387870671063</v>
       </c>
       <c r="P10">
-        <v>0.9905638816751052</v>
+        <v>0.999976930889491</v>
       </c>
       <c r="Q10">
-        <v>0.9905638816751052</v>
+        <v>0.999976930889491</v>
       </c>
       <c r="R10">
-        <v>0.9963604473811574</v>
+        <v>0.999992185823795</v>
       </c>
       <c r="S10">
-        <v>0.9963604473811574</v>
+        <v>0.999992185823795</v>
       </c>
       <c r="T10">
-        <v>0.9988076263557653</v>
+        <v>0.9999963807586764</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00404346743426</v>
+        <v>1.00076747361736</v>
       </c>
       <c r="D11">
-        <v>0.9910981792337578</v>
+        <v>0.9983135061723573</v>
       </c>
       <c r="E11">
-        <v>1.010851502175593</v>
+        <v>1.002025032162525</v>
       </c>
       <c r="F11">
-        <v>1.003993015282278</v>
+        <v>1.000783250503247</v>
       </c>
       <c r="G11">
-        <v>0.9838448355238945</v>
+        <v>0.9969242741400446</v>
       </c>
       <c r="H11">
-        <v>1.003993015282278</v>
+        <v>1.000783250503247</v>
       </c>
       <c r="I11">
-        <v>0.9838448355238945</v>
+        <v>0.9969242741400446</v>
       </c>
       <c r="J11">
-        <v>1.004064226572585</v>
+        <v>1.000760976558196</v>
       </c>
       <c r="K11">
-        <v>1.003993015282278</v>
+        <v>1.000783250503247</v>
       </c>
       <c r="L11">
-        <v>1.004064226572585</v>
+        <v>1.000760976558196</v>
       </c>
       <c r="M11">
-        <v>0.9939545310482395</v>
+        <v>0.9988426253491201</v>
       </c>
       <c r="N11">
-        <v>0.9939545310482395</v>
+        <v>0.9988426253491201</v>
       </c>
       <c r="O11">
-        <v>0.9930024137767456</v>
+        <v>0.9986662522901991</v>
       </c>
       <c r="P11">
-        <v>0.9973006924595854</v>
+        <v>0.9994895004004957</v>
       </c>
       <c r="Q11">
-        <v>0.9973006924595854</v>
+        <v>0.9994895004004957</v>
       </c>
       <c r="R11">
-        <v>0.9989737731652585</v>
+        <v>0.9998129379261834</v>
       </c>
       <c r="S11">
-        <v>0.9989737731652585</v>
+        <v>0.9998129379261834</v>
       </c>
       <c r="T11">
-        <v>0.9996492043703945</v>
+        <v>0.9999290855256215</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.004338085747367</v>
+        <v>1.014114435772813</v>
       </c>
       <c r="D12">
-        <v>0.9904429054631586</v>
+        <v>0.9689033980710602</v>
       </c>
       <c r="E12">
-        <v>1.011716047242108</v>
+        <v>1.038136279265402</v>
       </c>
       <c r="F12">
-        <v>1.004229893978951</v>
+        <v>1.013750144499314</v>
       </c>
       <c r="G12">
-        <v>0.9826877203473681</v>
+        <v>0.9436770997878572</v>
       </c>
       <c r="H12">
-        <v>1.004229893978951</v>
+        <v>1.013750144499314</v>
       </c>
       <c r="I12">
-        <v>0.9826877203473681</v>
+        <v>0.9436770997878572</v>
       </c>
       <c r="J12">
-        <v>1.004382611578948</v>
+        <v>1.014264400738145</v>
       </c>
       <c r="K12">
-        <v>1.004229893978951</v>
+        <v>1.013750144499314</v>
       </c>
       <c r="L12">
-        <v>1.004382611578948</v>
+        <v>1.014264400738145</v>
       </c>
       <c r="M12">
-        <v>0.9935351659631579</v>
+        <v>0.978970750263001</v>
       </c>
       <c r="N12">
-        <v>0.9935351659631579</v>
+        <v>0.978970750263001</v>
       </c>
       <c r="O12">
-        <v>0.9925044124631581</v>
+        <v>0.9756149661990207</v>
       </c>
       <c r="P12">
-        <v>0.9971000753017556</v>
+        <v>0.9905638816751052</v>
       </c>
       <c r="Q12">
-        <v>0.9971000753017556</v>
+        <v>0.9905638816751052</v>
       </c>
       <c r="R12">
-        <v>0.9988825299710544</v>
+        <v>0.9963604473811574</v>
       </c>
       <c r="S12">
-        <v>0.9988825299710544</v>
+        <v>0.9963604473811574</v>
       </c>
       <c r="T12">
-        <v>0.9996328773929833</v>
+        <v>0.9988076263557653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.997219497238867</v>
+        <v>1.00404346743426</v>
       </c>
       <c r="D13">
-        <v>1.006118176122117</v>
+        <v>0.9910981792337578</v>
       </c>
       <c r="E13">
-        <v>0.9925734872268116</v>
+        <v>1.010851502175593</v>
       </c>
       <c r="F13">
-        <v>0.9972281552847391</v>
+        <v>1.003993015282278</v>
       </c>
       <c r="G13">
-        <v>1.011118809462499</v>
+        <v>0.9838448355238945</v>
       </c>
       <c r="H13">
-        <v>0.9972281552847391</v>
+        <v>1.003993015282278</v>
       </c>
       <c r="I13">
-        <v>1.011118809462499</v>
+        <v>0.9838448355238945</v>
       </c>
       <c r="J13">
-        <v>0.9972159291556891</v>
+        <v>1.004064226572585</v>
       </c>
       <c r="K13">
-        <v>0.9972281552847391</v>
+        <v>1.003993015282278</v>
       </c>
       <c r="L13">
-        <v>0.9972159291556891</v>
+        <v>1.004064226572585</v>
       </c>
       <c r="M13">
-        <v>1.004167369309094</v>
+        <v>0.9939545310482395</v>
       </c>
       <c r="N13">
-        <v>1.004167369309094</v>
+        <v>0.9939545310482395</v>
       </c>
       <c r="O13">
-        <v>1.004817638246768</v>
+        <v>0.9930024137767456</v>
       </c>
       <c r="P13">
-        <v>1.001854297967642</v>
+        <v>0.9973006924595854</v>
       </c>
       <c r="Q13">
-        <v>1.001854297967642</v>
+        <v>0.9973006924595854</v>
       </c>
       <c r="R13">
-        <v>1.000697762296916</v>
+        <v>0.9989737731652585</v>
       </c>
       <c r="S13">
-        <v>1.000697762296916</v>
+        <v>0.9989737731652585</v>
       </c>
       <c r="T13">
-        <v>1.000245675748454</v>
+        <v>0.9996492043703945</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0243846</v>
+        <v>1.004338085747367</v>
       </c>
       <c r="D14">
-        <v>0.9462746299999995</v>
+        <v>0.9904429054631586</v>
       </c>
       <c r="E14">
-        <v>1.065905200000002</v>
+        <v>1.011716047242108</v>
       </c>
       <c r="F14">
-        <v>1.023740900000001</v>
+        <v>1.004229893978951</v>
       </c>
       <c r="G14">
-        <v>0.9026998499999992</v>
+        <v>0.9826877203473681</v>
       </c>
       <c r="H14">
-        <v>1.023740900000001</v>
+        <v>1.004229893978951</v>
       </c>
       <c r="I14">
-        <v>0.9026998499999992</v>
+        <v>0.9826877203473681</v>
       </c>
       <c r="J14">
-        <v>1.024649600000002</v>
+        <v>1.004382611578948</v>
       </c>
       <c r="K14">
-        <v>1.023740900000001</v>
+        <v>1.004229893978951</v>
       </c>
       <c r="L14">
-        <v>1.024649600000002</v>
+        <v>1.004382611578948</v>
       </c>
       <c r="M14">
-        <v>0.9636747250000006</v>
+        <v>0.9935351659631579</v>
       </c>
       <c r="N14">
-        <v>0.9636747250000006</v>
+        <v>0.9935351659631579</v>
       </c>
       <c r="O14">
-        <v>0.9578746933333336</v>
+        <v>0.9925044124631581</v>
       </c>
       <c r="P14">
-        <v>0.983696783333334</v>
+        <v>0.9971000753017556</v>
       </c>
       <c r="Q14">
-        <v>0.983696783333334</v>
+        <v>0.9971000753017556</v>
       </c>
       <c r="R14">
-        <v>0.9937078125000007</v>
+        <v>0.9988825299710544</v>
       </c>
       <c r="S14">
-        <v>0.9937078125000007</v>
+        <v>0.9988825299710544</v>
       </c>
       <c r="T14">
-        <v>0.9979424633333339</v>
+        <v>0.9996328773929833</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0117535</v>
+        <v>0.997219497238867</v>
       </c>
       <c r="D15">
-        <v>0.9742505199999999</v>
+        <v>1.006118176122117</v>
       </c>
       <c r="E15">
-        <v>1.0301398</v>
+        <v>0.9925734872268116</v>
       </c>
       <c r="F15">
-        <v>1.012634</v>
+        <v>0.9972281552847391</v>
       </c>
       <c r="G15">
-        <v>0.9526597999999999</v>
+        <v>1.011118809462499</v>
       </c>
       <c r="H15">
-        <v>1.012634</v>
+        <v>0.9972281552847391</v>
       </c>
       <c r="I15">
-        <v>0.9526597999999999</v>
+        <v>1.011118809462499</v>
       </c>
       <c r="J15">
-        <v>1.0113912</v>
+        <v>0.9972159291556891</v>
       </c>
       <c r="K15">
-        <v>1.012634</v>
+        <v>0.9972281552847391</v>
       </c>
       <c r="L15">
-        <v>1.0113912</v>
+        <v>0.9972159291556891</v>
       </c>
       <c r="M15">
-        <v>0.9820255</v>
+        <v>1.004167369309094</v>
       </c>
       <c r="N15">
-        <v>0.9820255</v>
+        <v>1.004167369309094</v>
       </c>
       <c r="O15">
-        <v>0.97943384</v>
+        <v>1.004817638246768</v>
       </c>
       <c r="P15">
-        <v>0.9922283333333333</v>
+        <v>1.001854297967642</v>
       </c>
       <c r="Q15">
-        <v>0.9922283333333333</v>
+        <v>1.001854297967642</v>
       </c>
       <c r="R15">
-        <v>0.99732975</v>
+        <v>1.000697762296916</v>
       </c>
       <c r="S15">
-        <v>0.99732975</v>
+        <v>1.000697762296916</v>
       </c>
       <c r="T15">
-        <v>0.9988048033333333</v>
+        <v>1.000245675748454</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0278123</v>
+        <v>1.0243846</v>
       </c>
       <c r="D16">
-        <v>0.93871594</v>
+        <v>0.9462746299999995</v>
       </c>
       <c r="E16">
-        <v>1.0752445</v>
+        <v>1.065905200000002</v>
       </c>
       <c r="F16">
-        <v>1.0270229</v>
+        <v>1.023740900000001</v>
       </c>
       <c r="G16">
-        <v>0.88904326</v>
+        <v>0.9026998499999992</v>
       </c>
       <c r="H16">
-        <v>1.0270229</v>
+        <v>1.023740900000001</v>
       </c>
       <c r="I16">
-        <v>0.88904326</v>
+        <v>0.9026998499999992</v>
       </c>
       <c r="J16">
-        <v>1.0281371</v>
+        <v>1.024649600000002</v>
       </c>
       <c r="K16">
-        <v>1.0270229</v>
+        <v>1.023740900000001</v>
       </c>
       <c r="L16">
-        <v>1.0281371</v>
+        <v>1.024649600000002</v>
       </c>
       <c r="M16">
-        <v>0.95859018</v>
+        <v>0.9636747250000006</v>
       </c>
       <c r="N16">
-        <v>0.95859018</v>
+        <v>0.9636747250000006</v>
       </c>
       <c r="O16">
-        <v>0.9519654333333333</v>
+        <v>0.9578746933333336</v>
       </c>
       <c r="P16">
-        <v>0.9814010866666667</v>
+        <v>0.983696783333334</v>
       </c>
       <c r="Q16">
-        <v>0.9814010866666667</v>
+        <v>0.983696783333334</v>
       </c>
       <c r="R16">
-        <v>0.99280654</v>
+        <v>0.9937078125000007</v>
       </c>
       <c r="S16">
-        <v>0.99280654</v>
+        <v>0.9937078125000007</v>
       </c>
       <c r="T16">
-        <v>0.9976626666666667</v>
+        <v>0.9979424633333339</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9943626299999999</v>
+        <v>1.0117535</v>
       </c>
       <c r="D17">
-        <v>1.0124069</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="E17">
-        <v>0.9849151399999999</v>
+        <v>1.0301398</v>
       </c>
       <c r="F17">
-        <v>0.9944006000000001</v>
+        <v>1.012634</v>
       </c>
       <c r="G17">
-        <v>1.0225354</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H17">
-        <v>0.9944006000000001</v>
+        <v>1.012634</v>
       </c>
       <c r="I17">
-        <v>1.0225354</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="J17">
-        <v>0.99434701</v>
+        <v>1.0113912</v>
       </c>
       <c r="K17">
-        <v>0.9944006000000001</v>
+        <v>1.012634</v>
       </c>
       <c r="L17">
-        <v>0.99434701</v>
+        <v>1.0113912</v>
       </c>
       <c r="M17">
-        <v>1.008441205</v>
+        <v>0.9820255</v>
       </c>
       <c r="N17">
-        <v>1.008441205</v>
+        <v>0.9820255</v>
       </c>
       <c r="O17">
-        <v>1.009763103333333</v>
+        <v>0.97943384</v>
       </c>
       <c r="P17">
-        <v>1.003761003333333</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q17">
-        <v>1.003761003333334</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R17">
-        <v>1.0014209025</v>
+        <v>0.99732975</v>
       </c>
       <c r="S17">
-        <v>1.0014209025</v>
+        <v>0.99732975</v>
       </c>
       <c r="T17">
-        <v>1.000494613333333</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.009211579452055</v>
+        <v>1.0278123</v>
       </c>
       <c r="D18">
-        <v>0.9797603939726024</v>
+        <v>0.93871594</v>
       </c>
       <c r="E18">
-        <v>1.024276655890411</v>
+        <v>1.0752445</v>
       </c>
       <c r="F18">
-        <v>1.009422069041096</v>
+        <v>1.0270229</v>
       </c>
       <c r="G18">
-        <v>0.9630757112328771</v>
+        <v>0.88904326</v>
       </c>
       <c r="H18">
-        <v>1.009422069041096</v>
+        <v>1.0270229</v>
       </c>
       <c r="I18">
-        <v>0.9630757112328771</v>
+        <v>0.88904326</v>
       </c>
       <c r="J18">
-        <v>1.009124968219178</v>
+        <v>1.0281371</v>
       </c>
       <c r="K18">
-        <v>1.009422069041096</v>
+        <v>1.0270229</v>
       </c>
       <c r="L18">
-        <v>1.009124968219178</v>
+        <v>1.0281371</v>
       </c>
       <c r="M18">
-        <v>0.9861003397260277</v>
+        <v>0.95859018</v>
       </c>
       <c r="N18">
-        <v>0.9861003397260277</v>
+        <v>0.95859018</v>
       </c>
       <c r="O18">
-        <v>0.983987024474886</v>
+        <v>0.9519654333333333</v>
       </c>
       <c r="P18">
-        <v>0.9938742494977171</v>
+        <v>0.9814010866666667</v>
       </c>
       <c r="Q18">
-        <v>0.993874249497717</v>
+        <v>0.9814010866666667</v>
       </c>
       <c r="R18">
-        <v>0.9977612043835616</v>
+        <v>0.99280654</v>
       </c>
       <c r="S18">
-        <v>0.9977612043835616</v>
+        <v>0.99280654</v>
       </c>
       <c r="T18">
-        <v>0.9991452296347031</v>
+        <v>0.9976626666666667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.005507684736842</v>
+        <v>0.9943626299999999</v>
       </c>
       <c r="D19">
-        <v>0.9878464089473684</v>
+        <v>1.0124069</v>
       </c>
       <c r="E19">
-        <v>1.015094814736842</v>
+        <v>0.9849151399999999</v>
       </c>
       <c r="F19">
-        <v>1.005209298947369</v>
+        <v>0.9944006000000001</v>
       </c>
       <c r="G19">
-        <v>0.9780797847368422</v>
+        <v>1.0225354</v>
       </c>
       <c r="H19">
-        <v>1.005209298947369</v>
+        <v>0.9944006000000001</v>
       </c>
       <c r="I19">
-        <v>0.9780797847368422</v>
+        <v>1.0225354</v>
       </c>
       <c r="J19">
-        <v>1.005630478947368</v>
+        <v>0.99434701</v>
       </c>
       <c r="K19">
-        <v>1.005209298947369</v>
+        <v>0.9944006000000001</v>
       </c>
       <c r="L19">
-        <v>1.005630478947368</v>
+        <v>0.99434701</v>
       </c>
       <c r="M19">
-        <v>0.9918551318421054</v>
+        <v>1.008441205</v>
       </c>
       <c r="N19">
-        <v>0.9918551318421054</v>
+        <v>1.008441205</v>
       </c>
       <c r="O19">
-        <v>0.9905188908771931</v>
+        <v>1.009763103333333</v>
       </c>
       <c r="P19">
-        <v>0.9963065208771932</v>
+        <v>1.003761003333333</v>
       </c>
       <c r="Q19">
-        <v>0.9963065208771931</v>
+        <v>1.003761003333334</v>
       </c>
       <c r="R19">
-        <v>0.9985322153947369</v>
+        <v>1.0014209025</v>
       </c>
       <c r="S19">
-        <v>0.9985322153947369</v>
+        <v>1.0014209025</v>
       </c>
       <c r="T19">
-        <v>0.9995614118421052</v>
+        <v>1.000494613333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.0108689</v>
+        <v>1.009211579452055</v>
       </c>
       <c r="D20">
-        <v>0.9761179257894738</v>
+        <v>0.9797603939726024</v>
       </c>
       <c r="E20">
-        <v>1.028655931578947</v>
+        <v>1.024276655890411</v>
       </c>
       <c r="F20">
-        <v>1.011108810526316</v>
+        <v>1.009422069041096</v>
       </c>
       <c r="G20">
-        <v>0.956435546842105</v>
+        <v>0.9630757112328771</v>
       </c>
       <c r="H20">
-        <v>1.011108810526316</v>
+        <v>1.009422069041096</v>
       </c>
       <c r="I20">
-        <v>0.956435546842105</v>
+        <v>0.9630757112328771</v>
       </c>
       <c r="J20">
-        <v>1.010770168421053</v>
+        <v>1.009124968219178</v>
       </c>
       <c r="K20">
-        <v>1.011108810526316</v>
+        <v>1.009422069041096</v>
       </c>
       <c r="L20">
-        <v>1.010770168421053</v>
+        <v>1.009124968219178</v>
       </c>
       <c r="M20">
-        <v>0.983602857631579</v>
+        <v>0.9861003397260277</v>
       </c>
       <c r="N20">
-        <v>0.983602857631579</v>
+        <v>0.9861003397260277</v>
       </c>
       <c r="O20">
-        <v>0.9811078803508773</v>
+        <v>0.983987024474886</v>
       </c>
       <c r="P20">
-        <v>0.9927715085964913</v>
+        <v>0.9938742494977171</v>
       </c>
       <c r="Q20">
-        <v>0.9927715085964911</v>
+        <v>0.993874249497717</v>
       </c>
       <c r="R20">
-        <v>0.9973558340789473</v>
+        <v>0.9977612043835616</v>
       </c>
       <c r="S20">
-        <v>0.9973558340789473</v>
+        <v>0.9977612043835616</v>
       </c>
       <c r="T20">
-        <v>0.9989928805263159</v>
+        <v>0.9991452296347031</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9900340611122644</v>
+        <v>1.005507684736842</v>
       </c>
       <c r="D21">
-        <v>1.021923694672814</v>
+        <v>0.9878464089473684</v>
       </c>
       <c r="E21">
-        <v>0.9734394138906071</v>
+        <v>1.015094814736842</v>
       </c>
       <c r="F21">
-        <v>0.9900228960430021</v>
+        <v>1.005209298947369</v>
       </c>
       <c r="G21">
-        <v>1.039867892566058</v>
+        <v>0.9780797847368422</v>
       </c>
       <c r="H21">
-        <v>0.9900228960430021</v>
+        <v>1.005209298947369</v>
       </c>
       <c r="I21">
-        <v>1.039867892566058</v>
+        <v>0.9780797847368422</v>
       </c>
       <c r="J21">
-        <v>0.9900386538886654</v>
+        <v>1.005630478947368</v>
       </c>
       <c r="K21">
-        <v>0.9900228960430021</v>
+        <v>1.005209298947369</v>
       </c>
       <c r="L21">
-        <v>0.9900386538886654</v>
+        <v>1.005630478947368</v>
       </c>
       <c r="M21">
-        <v>1.014953273227362</v>
+        <v>0.9918551318421054</v>
       </c>
       <c r="N21">
-        <v>1.014953273227362</v>
+        <v>0.9918551318421054</v>
       </c>
       <c r="O21">
-        <v>1.017276747042512</v>
+        <v>0.9905188908771931</v>
       </c>
       <c r="P21">
-        <v>1.006643147499242</v>
+        <v>0.9963065208771932</v>
       </c>
       <c r="Q21">
-        <v>1.006643147499242</v>
+        <v>0.9963065208771931</v>
       </c>
       <c r="R21">
-        <v>1.002488084635182</v>
+        <v>0.9985322153947369</v>
       </c>
       <c r="S21">
-        <v>1.002488084635182</v>
+        <v>0.9985322153947369</v>
       </c>
       <c r="T21">
-        <v>1.000887768695568</v>
+        <v>0.9995614118421052</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9973586951029331</v>
+        <v>1.0108689</v>
       </c>
       <c r="D22">
-        <v>1.005811087511842</v>
+        <v>0.9761179257894738</v>
       </c>
       <c r="E22">
-        <v>0.992954184241805</v>
+        <v>1.028655931578947</v>
       </c>
       <c r="F22">
-        <v>0.9973603906853733</v>
+        <v>1.011108810526316</v>
       </c>
       <c r="G22">
-        <v>1.010564612316284</v>
+        <v>0.956435546842105</v>
       </c>
       <c r="H22">
-        <v>0.9973603906853733</v>
+        <v>1.011108810526316</v>
       </c>
       <c r="I22">
-        <v>1.010564612316284</v>
+        <v>0.956435546842105</v>
       </c>
       <c r="J22">
-        <v>0.9973579900166274</v>
+        <v>1.010770168421053</v>
       </c>
       <c r="K22">
-        <v>0.9973603906853733</v>
+        <v>1.011108810526316</v>
       </c>
       <c r="L22">
-        <v>0.9973579900166274</v>
+        <v>1.010770168421053</v>
       </c>
       <c r="M22">
-        <v>1.003961301166456</v>
+        <v>0.983602857631579</v>
       </c>
       <c r="N22">
-        <v>1.003961301166456</v>
+        <v>0.983602857631579</v>
       </c>
       <c r="O22">
-        <v>1.004577896614918</v>
+        <v>0.9811078803508773</v>
       </c>
       <c r="P22">
-        <v>1.001760997672761</v>
+        <v>0.9927715085964913</v>
       </c>
       <c r="Q22">
-        <v>1.001760997672761</v>
+        <v>0.9927715085964911</v>
       </c>
       <c r="R22">
-        <v>1.000660845925915</v>
+        <v>0.9973558340789473</v>
       </c>
       <c r="S22">
-        <v>1.000660845925915</v>
+        <v>0.9973558340789473</v>
       </c>
       <c r="T22">
-        <v>1.000234493312478</v>
+        <v>0.9989928805263159</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9959043335620371</v>
+        <v>0.9900340611122644</v>
       </c>
       <c r="D23">
-        <v>1.009021211516634</v>
+        <v>1.021923694672814</v>
       </c>
       <c r="E23">
-        <v>0.9889588270509722</v>
+        <v>0.9734394138906071</v>
       </c>
       <c r="F23">
-        <v>0.9959917097856436</v>
+        <v>0.9900228960430021</v>
       </c>
       <c r="G23">
-        <v>1.016350308495692</v>
+        <v>1.039867892566058</v>
       </c>
       <c r="H23">
-        <v>0.9959917097856436</v>
+        <v>0.9900228960430021</v>
       </c>
       <c r="I23">
-        <v>1.016350308495692</v>
+        <v>1.039867892566058</v>
       </c>
       <c r="J23">
-        <v>0.995868369777545</v>
+        <v>0.9900386538886654</v>
       </c>
       <c r="K23">
-        <v>0.9959917097856436</v>
+        <v>0.9900228960430021</v>
       </c>
       <c r="L23">
-        <v>0.995868369777545</v>
+        <v>0.9900386538886654</v>
       </c>
       <c r="M23">
-        <v>1.006109339136618</v>
+        <v>1.014953273227362</v>
       </c>
       <c r="N23">
-        <v>1.006109339136618</v>
+        <v>1.014953273227362</v>
       </c>
       <c r="O23">
-        <v>1.00707996326329</v>
+        <v>1.017276747042512</v>
       </c>
       <c r="P23">
-        <v>1.002736796019627</v>
+        <v>1.006643147499242</v>
       </c>
       <c r="Q23">
-        <v>1.002736796019627</v>
+        <v>1.006643147499242</v>
       </c>
       <c r="R23">
-        <v>1.001050524461131</v>
+        <v>1.002488084635182</v>
       </c>
       <c r="S23">
-        <v>1.001050524461131</v>
+        <v>1.002488084635182</v>
       </c>
       <c r="T23">
-        <v>1.000349126698087</v>
+        <v>1.000887768695568</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9989361027224172</v>
+        <v>0.9973586951029331</v>
       </c>
       <c r="D24">
-        <v>1.002335922004729</v>
+        <v>1.005811087511842</v>
       </c>
       <c r="E24">
-        <v>0.9972146777811256</v>
+        <v>0.992954184241805</v>
       </c>
       <c r="F24">
-        <v>0.9988982328641662</v>
+        <v>0.9973603906853733</v>
       </c>
       <c r="G24">
-        <v>1.004269613434494</v>
+        <v>1.010564612316284</v>
       </c>
       <c r="H24">
-        <v>0.9988982328641662</v>
+        <v>0.9973603906853733</v>
       </c>
       <c r="I24">
-        <v>1.004269613434494</v>
+        <v>1.010564612316284</v>
       </c>
       <c r="J24">
-        <v>0.9989516865231632</v>
+        <v>0.9973579900166274</v>
       </c>
       <c r="K24">
-        <v>0.9988982328641662</v>
+        <v>0.9973603906853733</v>
       </c>
       <c r="L24">
-        <v>0.9989516865231632</v>
+        <v>0.9973579900166274</v>
       </c>
       <c r="M24">
-        <v>1.001610649978829</v>
+        <v>1.003961301166456</v>
       </c>
       <c r="N24">
-        <v>1.001610649978829</v>
+        <v>1.003961301166456</v>
       </c>
       <c r="O24">
-        <v>1.001852407320796</v>
+        <v>1.004577896614918</v>
       </c>
       <c r="P24">
-        <v>1.000706510940608</v>
+        <v>1.001760997672761</v>
       </c>
       <c r="Q24">
-        <v>1.000706510940608</v>
+        <v>1.001760997672761</v>
       </c>
       <c r="R24">
-        <v>1.000254441421498</v>
+        <v>1.000660845925915</v>
       </c>
       <c r="S24">
-        <v>1.000254441421498</v>
+        <v>1.000660845925915</v>
       </c>
       <c r="T24">
-        <v>1.000101039221683</v>
+        <v>1.000234493312478</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.005393655032135</v>
+        <v>0.9959043335620371</v>
       </c>
       <c r="D25">
-        <v>0.9881868926266736</v>
+        <v>1.009021211516634</v>
       </c>
       <c r="E25">
-        <v>1.01379506738653</v>
+        <v>0.9889588270509722</v>
       </c>
       <c r="F25">
-        <v>1.005824020642823</v>
+        <v>0.9959917097856436</v>
       </c>
       <c r="G25">
-        <v>0.9782660093582712</v>
+        <v>1.016350308495692</v>
       </c>
       <c r="H25">
-        <v>1.005824020642823</v>
+        <v>0.9959917097856436</v>
       </c>
       <c r="I25">
-        <v>0.9782660093582712</v>
+        <v>1.016350308495692</v>
       </c>
       <c r="J25">
-        <v>1.005216548012237</v>
+        <v>0.995868369777545</v>
       </c>
       <c r="K25">
-        <v>1.005824020642823</v>
+        <v>0.9959917097856436</v>
       </c>
       <c r="L25">
-        <v>1.005216548012237</v>
+        <v>0.995868369777545</v>
       </c>
       <c r="M25">
-        <v>0.9917412786852542</v>
+        <v>1.006109339136618</v>
       </c>
       <c r="N25">
-        <v>0.9917412786852542</v>
+        <v>1.006109339136618</v>
       </c>
       <c r="O25">
-        <v>0.990556483332394</v>
+        <v>1.00707996326329</v>
       </c>
       <c r="P25">
-        <v>0.9964355260044439</v>
+        <v>1.002736796019627</v>
       </c>
       <c r="Q25">
-        <v>0.9964355260044439</v>
+        <v>1.002736796019627</v>
       </c>
       <c r="R25">
-        <v>0.9987826496640386</v>
+        <v>1.001050524461131</v>
       </c>
       <c r="S25">
-        <v>0.9987826496640386</v>
+        <v>1.001050524461131</v>
       </c>
       <c r="T25">
-        <v>0.9994470321764449</v>
+        <v>1.000349126698087</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.001444230295405</v>
+        <v>0.9989361027224172</v>
       </c>
       <c r="D26">
-        <v>0.9968006048464185</v>
+        <v>1.002335922004729</v>
       </c>
       <c r="E26">
-        <v>1.004096658377053</v>
+        <v>0.9972146777811256</v>
       </c>
       <c r="F26">
-        <v>1.00126463293162</v>
+        <v>0.9988982328641662</v>
       </c>
       <c r="G26">
-        <v>0.9942895894883611</v>
+        <v>1.004269613434494</v>
       </c>
       <c r="H26">
-        <v>1.00126463293162</v>
+        <v>0.9988982328641662</v>
       </c>
       <c r="I26">
-        <v>0.9942895894883611</v>
+        <v>1.004269613434494</v>
       </c>
       <c r="J26">
-        <v>1.001518137567549</v>
+        <v>0.9989516865231632</v>
       </c>
       <c r="K26">
-        <v>1.00126463293162</v>
+        <v>0.9988982328641662</v>
       </c>
       <c r="L26">
-        <v>1.001518137567549</v>
+        <v>0.9989516865231632</v>
       </c>
       <c r="M26">
-        <v>0.9979038635279551</v>
+        <v>1.001610649978829</v>
       </c>
       <c r="N26">
-        <v>0.9979038635279551</v>
+        <v>1.001610649978829</v>
       </c>
       <c r="O26">
-        <v>0.9975361106341096</v>
+        <v>1.001852407320796</v>
       </c>
       <c r="P26">
-        <v>0.9990241199958433</v>
+        <v>1.000706510940608</v>
       </c>
       <c r="Q26">
-        <v>0.9990241199958434</v>
+        <v>1.000706510940608</v>
       </c>
       <c r="R26">
-        <v>0.9995842482297874</v>
+        <v>1.000254441421498</v>
       </c>
       <c r="S26">
-        <v>0.9995842482297874</v>
+        <v>1.000254441421498</v>
       </c>
       <c r="T26">
-        <v>0.9999023089177342</v>
+        <v>1.000101039221683</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.001457167344898</v>
+        <v>1.005393655032135</v>
       </c>
       <c r="D27">
-        <v>0.9967960215159618</v>
+        <v>0.9881868926266736</v>
       </c>
       <c r="E27">
-        <v>1.003865727910247</v>
+        <v>1.01379506738653</v>
       </c>
       <c r="F27">
-        <v>1.001471833349316</v>
+        <v>1.005824020642823</v>
       </c>
       <c r="G27">
-        <v>0.9941658938391162</v>
+        <v>0.9782660093582712</v>
       </c>
       <c r="H27">
-        <v>1.001471833349316</v>
+        <v>1.005824020642823</v>
       </c>
       <c r="I27">
-        <v>0.9941658938391162</v>
+        <v>0.9782660093582712</v>
       </c>
       <c r="J27">
-        <v>1.001451137142136</v>
+        <v>1.005216548012237</v>
       </c>
       <c r="K27">
-        <v>1.001471833349316</v>
+        <v>1.005824020642823</v>
       </c>
       <c r="L27">
-        <v>1.001451137142136</v>
+        <v>1.005216548012237</v>
       </c>
       <c r="M27">
-        <v>0.9978085154906261</v>
+        <v>0.9917412786852542</v>
       </c>
       <c r="N27">
-        <v>0.9978085154906261</v>
+        <v>0.9917412786852542</v>
       </c>
       <c r="O27">
-        <v>0.9974710174990714</v>
+        <v>0.990556483332394</v>
       </c>
       <c r="P27">
-        <v>0.9990296214435229</v>
+        <v>0.9964355260044439</v>
       </c>
       <c r="Q27">
-        <v>0.9990296214435229</v>
+        <v>0.9964355260044439</v>
       </c>
       <c r="R27">
-        <v>0.9996401744199712</v>
+        <v>0.9987826496640386</v>
       </c>
       <c r="S27">
-        <v>0.9996401744199712</v>
+        <v>0.9987826496640386</v>
       </c>
       <c r="T27">
-        <v>0.9998679635169457</v>
+        <v>0.9994470321764449</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.00063352294072</v>
+        <v>1.001444230295405</v>
       </c>
       <c r="D28">
-        <v>0.9986113883555927</v>
+        <v>0.9968006048464185</v>
       </c>
       <c r="E28">
-        <v>1.001632362719036</v>
+        <v>1.004096658377053</v>
       </c>
       <c r="F28">
-        <v>1.000675257186689</v>
+        <v>1.00126463293162</v>
       </c>
       <c r="G28">
-        <v>0.9974504659425535</v>
+        <v>0.9942895894883611</v>
       </c>
       <c r="H28">
-        <v>1.000675257186689</v>
+        <v>1.00126463293162</v>
       </c>
       <c r="I28">
-        <v>0.9974504659425535</v>
+        <v>0.9942895894883611</v>
       </c>
       <c r="J28">
-        <v>1.000616343326814</v>
+        <v>1.001518137567549</v>
       </c>
       <c r="K28">
-        <v>1.000675257186689</v>
+        <v>1.00126463293162</v>
       </c>
       <c r="L28">
-        <v>1.000616343326814</v>
+        <v>1.001518137567549</v>
       </c>
       <c r="M28">
-        <v>0.9990334046346836</v>
+        <v>0.9979038635279551</v>
       </c>
       <c r="N28">
-        <v>0.9990334046346836</v>
+        <v>0.9979038635279551</v>
       </c>
       <c r="O28">
-        <v>0.9988927325416533</v>
+        <v>0.9975361106341096</v>
       </c>
       <c r="P28">
-        <v>0.9995806888186854</v>
+        <v>0.9990241199958433</v>
       </c>
       <c r="Q28">
-        <v>0.9995806888186854</v>
+        <v>0.9990241199958434</v>
       </c>
       <c r="R28">
-        <v>0.9998543309106863</v>
+        <v>0.9995842482297874</v>
       </c>
       <c r="S28">
-        <v>0.9998543309106863</v>
+        <v>0.9995842482297874</v>
       </c>
       <c r="T28">
-        <v>0.9999365567452342</v>
+        <v>0.9999023089177342</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.001457167344898</v>
+      </c>
+      <c r="D29">
+        <v>0.9967960215159618</v>
+      </c>
+      <c r="E29">
+        <v>1.003865727910247</v>
+      </c>
+      <c r="F29">
+        <v>1.001471833349316</v>
+      </c>
+      <c r="G29">
+        <v>0.9941658938391162</v>
+      </c>
+      <c r="H29">
+        <v>1.001471833349316</v>
+      </c>
+      <c r="I29">
+        <v>0.9941658938391162</v>
+      </c>
+      <c r="J29">
+        <v>1.001451137142136</v>
+      </c>
+      <c r="K29">
+        <v>1.001471833349316</v>
+      </c>
+      <c r="L29">
+        <v>1.001451137142136</v>
+      </c>
+      <c r="M29">
+        <v>0.9978085154906261</v>
+      </c>
+      <c r="N29">
+        <v>0.9978085154906261</v>
+      </c>
+      <c r="O29">
+        <v>0.9974710174990714</v>
+      </c>
+      <c r="P29">
+        <v>0.9990296214435229</v>
+      </c>
+      <c r="Q29">
+        <v>0.9990296214435229</v>
+      </c>
+      <c r="R29">
+        <v>0.9996401744199712</v>
+      </c>
+      <c r="S29">
+        <v>0.9996401744199712</v>
+      </c>
+      <c r="T29">
+        <v>0.9998679635169457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.00063352294072</v>
+      </c>
+      <c r="D30">
+        <v>0.9986113883555927</v>
+      </c>
+      <c r="E30">
+        <v>1.001632362719036</v>
+      </c>
+      <c r="F30">
+        <v>1.000675257186689</v>
+      </c>
+      <c r="G30">
+        <v>0.9974504659425535</v>
+      </c>
+      <c r="H30">
+        <v>1.000675257186689</v>
+      </c>
+      <c r="I30">
+        <v>0.9974504659425535</v>
+      </c>
+      <c r="J30">
+        <v>1.000616343326814</v>
+      </c>
+      <c r="K30">
+        <v>1.000675257186689</v>
+      </c>
+      <c r="L30">
+        <v>1.000616343326814</v>
+      </c>
+      <c r="M30">
+        <v>0.9990334046346836</v>
+      </c>
+      <c r="N30">
+        <v>0.9990334046346836</v>
+      </c>
+      <c r="O30">
+        <v>0.9988927325416533</v>
+      </c>
+      <c r="P30">
+        <v>0.9995806888186854</v>
+      </c>
+      <c r="Q30">
+        <v>0.9995806888186854</v>
+      </c>
+      <c r="R30">
+        <v>0.9998543309106863</v>
+      </c>
+      <c r="S30">
+        <v>0.9998543309106863</v>
+      </c>
+      <c r="T30">
+        <v>0.9999365567452342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9961146942500919</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.008560755404232</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9894940723174048</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9962208726866625</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.01550193790399</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9962208726866625</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.01550193790399</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9960709824758134</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9962208726866625</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9960709824758134</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.005786460189902</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.005786460189902</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.006711225261345</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.002597931022155</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.002597931022155</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.001003666438282</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.001003666438282</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000327219173032</v>
       </c>
     </row>
